--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balra\Downloads\apit\Vocabulary\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t>word</t>
   </si>
@@ -247,12 +247,19 @@
   </si>
   <si>
     <t>Having or showing zeal; passionate and enthusiastic</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Processed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -609,18 +616,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.77734375"/>
+    <col min="2" max="2" customWidth="true" width="36.44140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
     </row>
@@ -631,6 +638,9 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s" s="0">
+        <v>72</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -639,6 +649,9 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C3" t="s" s="0">
+        <v>72</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -647,6 +660,9 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C4" t="s" s="0">
+        <v>72</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -655,6 +671,9 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C5" t="s" s="0">
+        <v>72</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -662,6 +681,9 @@
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balra\Downloads\apit\Vocabulary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E30C49-9E55-4B0C-A0C3-0152902507FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E756F2E0-285D-41CF-B4D7-61CB8C054756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E5039CE-C678-43CD-883D-B4B680B825D6}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>word</t>
   </si>
@@ -247,9 +247,6 @@
   </si>
   <si>
     <t>Having or showing zeal; passionate and enthusiastic</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Processed</t>
@@ -259,7 +256,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -611,23 +607,23 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.77734375"/>
-    <col min="2" max="2" customWidth="true" width="36.44140625"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -638,9 +634,6 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="0">
-        <v>72</v>
-      </c>
     </row>
     <row r="3" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -649,9 +642,6 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>72</v>
-      </c>
     </row>
     <row r="4" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -660,9 +650,6 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>72</v>
-      </c>
     </row>
     <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -671,9 +658,6 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>72</v>
-      </c>
     </row>
     <row r="6" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -682,9 +666,6 @@
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>72</v>
-      </c>
     </row>
     <row r="7" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -764,6 +745,9 @@
       </c>
       <c r="B16" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balra\Downloads\apit\Vocabulary\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>word</t>
   </si>
@@ -250,12 +250,16 @@
   </si>
   <si>
     <t>Processed</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -612,18 +616,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.77734375"/>
+    <col min="2" max="2" customWidth="true" width="36.44140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
     </row>
@@ -634,6 +638,9 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -642,6 +649,9 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C3" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -650,6 +660,9 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C4" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -658,6 +671,9 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C5" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -666,6 +682,9 @@
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C6" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -674,6 +693,9 @@
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C7" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -682,6 +704,9 @@
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C8" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -690,6 +715,9 @@
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C9" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -698,6 +726,9 @@
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C10" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -706,6 +737,9 @@
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C11" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -714,6 +748,9 @@
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C12" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -722,6 +759,9 @@
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C13" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -730,6 +770,9 @@
       <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="C14" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -738,6 +781,9 @@
       <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C15" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -746,7 +792,7 @@
       <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>71</v>
       </c>
     </row>
@@ -756,6 +802,9 @@
       </c>
       <c r="B17" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="73">
   <si>
     <t>word</t>
   </si>
@@ -814,6 +814,9 @@
       <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="C18" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -822,6 +825,9 @@
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="C19" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -830,6 +836,9 @@
       <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="C20" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -838,6 +847,9 @@
       <c r="B21" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="C21" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -845,6 +857,9 @@
       </c>
       <c r="B22" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
   <si>
     <t>word</t>
   </si>
@@ -869,6 +869,9 @@
       <c r="B23" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="C23" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
@@ -877,6 +880,9 @@
       <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="C24" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -885,6 +891,9 @@
       <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="C25" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -893,6 +902,9 @@
       <c r="B26" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="C26" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -900,6 +912,9 @@
       </c>
       <c r="B27" s="1" t="s">
         <v>54</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="73">
   <si>
     <t>word</t>
   </si>
@@ -924,6 +924,9 @@
       <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="C28" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="29" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
@@ -932,6 +935,9 @@
       <c r="B29" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="C29" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
@@ -940,6 +946,9 @@
       <c r="B30" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="C30" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
@@ -948,6 +957,9 @@
       <c r="B31" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="C31" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -955,6 +967,9 @@
       </c>
       <c r="B32" s="1" t="s">
         <v>64</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balra\Downloads\apit\Vocabulary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E756F2E0-285D-41CF-B4D7-61CB8C054756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB03B4A1-4CA9-47C4-B6CD-9649B5DDEF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E5039CE-C678-43CD-883D-B4B680B825D6}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
   <si>
     <t>word</t>
   </si>
@@ -250,16 +250,12 @@
   </si>
   <si>
     <t>Processed</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -611,23 +607,23 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.77734375"/>
-    <col min="2" max="2" customWidth="true" width="36.44140625"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -638,7 +634,7 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -649,7 +645,7 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -660,7 +656,7 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>71</v>
       </c>
     </row>
@@ -671,9 +667,6 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>71</v>
-      </c>
     </row>
     <row r="6" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -682,9 +675,6 @@
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>71</v>
-      </c>
     </row>
     <row r="7" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -693,9 +683,6 @@
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s" s="0">
-        <v>71</v>
-      </c>
     </row>
     <row r="8" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -704,9 +691,6 @@
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s" s="0">
-        <v>71</v>
-      </c>
     </row>
     <row r="9" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -715,9 +699,6 @@
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s" s="0">
-        <v>71</v>
-      </c>
     </row>
     <row r="10" spans="1:3" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -726,9 +707,6 @@
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s" s="0">
-        <v>71</v>
-      </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -737,9 +715,6 @@
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s" s="0">
-        <v>71</v>
-      </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -748,9 +723,6 @@
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s" s="0">
-        <v>71</v>
-      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -759,9 +731,6 @@
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s" s="0">
-        <v>71</v>
-      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -770,9 +739,6 @@
       <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s" s="0">
-        <v>71</v>
-      </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -781,9 +747,6 @@
       <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C15" t="s" s="0">
-        <v>71</v>
-      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -792,183 +755,171 @@
       <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C17" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C18" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C19" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C20" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C21" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C22" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C23" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C24" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C25" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C26" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C27" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C28" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C29" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C30" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C31" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C32" t="s" s="0">
+      <c r="C32" t="s">
         <v>71</v>
       </c>
     </row>

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balra\Downloads\apit\Vocabulary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB03B4A1-4CA9-47C4-B6CD-9649B5DDEF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D49DD9-73CA-4F66-8FBB-0AC6C3117FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E5039CE-C678-43CD-883D-B4B680B825D6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
   <si>
     <t>word</t>
   </si>
@@ -607,7 +607,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,9 +634,6 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="3" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -645,9 +642,6 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="4" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -655,9 +649,6 @@
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balra\Downloads\apit\Vocabulary\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
   <si>
     <t>word</t>
   </si>
@@ -250,12 +250,16 @@
   </si>
   <si>
     <t>Processed</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -612,18 +616,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.77734375"/>
+    <col min="2" max="2" customWidth="true" width="36.44140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
     </row>
@@ -634,6 +638,9 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -642,6 +649,9 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C3" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -650,6 +660,9 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C4" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -658,6 +671,9 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C5" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -666,6 +682,9 @@
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C6" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -778,7 +797,7 @@
       <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>71</v>
       </c>
     </row>
@@ -789,7 +808,7 @@
       <c r="B21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>71</v>
       </c>
     </row>
@@ -800,7 +819,7 @@
       <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>71</v>
       </c>
     </row>
@@ -811,7 +830,7 @@
       <c r="B23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>71</v>
       </c>
     </row>
@@ -822,7 +841,7 @@
       <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="0">
         <v>71</v>
       </c>
     </row>
@@ -833,7 +852,7 @@
       <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="0">
         <v>71</v>
       </c>
     </row>
@@ -844,7 +863,7 @@
       <c r="B26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="0">
         <v>71</v>
       </c>
     </row>
@@ -855,7 +874,7 @@
       <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="0">
         <v>71</v>
       </c>
     </row>
@@ -866,7 +885,7 @@
       <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" t="s" s="0">
         <v>71</v>
       </c>
     </row>
@@ -877,7 +896,7 @@
       <c r="B29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" t="s" s="0">
         <v>71</v>
       </c>
     </row>
@@ -888,7 +907,7 @@
       <c r="B30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" t="s" s="0">
         <v>71</v>
       </c>
     </row>
@@ -899,7 +918,7 @@
       <c r="B31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" t="s" s="0">
         <v>71</v>
       </c>
     </row>
@@ -910,7 +929,7 @@
       <c r="B32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" t="s" s="0">
         <v>71</v>
       </c>
     </row>

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
   <si>
     <t>word</t>
   </si>
@@ -693,6 +693,9 @@
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C7" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -701,6 +704,9 @@
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C8" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -709,6 +715,9 @@
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C9" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -717,6 +726,9 @@
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C10" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -724,6 +736,9 @@
       </c>
       <c r="B11" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balra\Downloads\apit\Vocabulary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D49DD9-73CA-4F66-8FBB-0AC6C3117FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21F3409-2387-43A7-A698-83C91A6501DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E5039CE-C678-43CD-883D-B4B680B825D6}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="88">
   <si>
     <t>word</t>
   </si>
@@ -252,14 +252,58 @@
     <t>Processed</t>
   </si>
   <si>
-    <t/>
+    <t>Aberration</t>
+  </si>
+  <si>
+    <t>A departure from what is normal, usual, or expected, typically unwelcome.</t>
+  </si>
+  <si>
+    <t>Well-meaning and kindly.</t>
+  </si>
+  <si>
+    <t>Capricious</t>
+  </si>
+  <si>
+    <t>Given to sudden and unaccountable changes of mood or behavior.</t>
+  </si>
+  <si>
+    <t>Dauntless</t>
+  </si>
+  <si>
+    <t>Showing fearlessness and determination.</t>
+  </si>
+  <si>
+    <t>Lasting for a very short time.</t>
+  </si>
+  <si>
+    <t>Facetious</t>
+  </si>
+  <si>
+    <t>Treating serious issues with deliberately inappropriate humor.</t>
+  </si>
+  <si>
+    <t>Garrulous</t>
+  </si>
+  <si>
+    <t>Excessively talkative, especially on trivial matters.</t>
+  </si>
+  <si>
+    <t>Haphazard</t>
+  </si>
+  <si>
+    <t>Lacking any obvious principle of organization.</t>
+  </si>
+  <si>
+    <t>Too great or extreme to be expressed or described in words.</t>
+  </si>
+  <si>
+    <t>The fact of two things being placed together with contrasting effect.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -289,11 +333,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,26 +653,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85CF102-B611-47B6-9C6A-41E4FF502F11}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C1035"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.77734375"/>
-    <col min="2" max="2" customWidth="true" width="36.44140625"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="77.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -638,7 +683,7 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -649,7 +694,7 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -660,7 +705,7 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>71</v>
       </c>
     </row>
@@ -671,7 +716,7 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -682,7 +727,7 @@
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>71</v>
       </c>
     </row>
@@ -693,7 +738,7 @@
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>71</v>
       </c>
     </row>
@@ -704,7 +749,7 @@
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>71</v>
       </c>
     </row>
@@ -715,7 +760,7 @@
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -726,7 +771,7 @@
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>71</v>
       </c>
     </row>
@@ -737,7 +782,7 @@
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -781,7 +826,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -789,7 +834,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -797,7 +842,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -805,147 +850,108 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C20" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C21" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C22" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C23" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C24" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C25" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C26" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C27" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C28" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C29" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C30" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C31" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C32" t="s" s="0">
-        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -956,7 +962,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>67</v>
       </c>
@@ -964,12 +970,8012 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A531" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A532" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A533" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A534" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A535" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A536" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A537" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A538" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A539" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A541" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A542" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A543" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A544" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A545" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A546" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A547" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A548" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A549" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A550" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A551" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A552" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A553" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A554" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A555" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A556" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A557" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A558" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A559" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A560" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A561" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A562" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A563" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A564" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A565" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A566" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A567" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A568" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A569" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B569" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A570" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A571" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A572" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A574" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A575" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A576" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A577" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A578" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A579" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B579" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A580" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B580" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A581" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A582" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A583" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A584" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A585" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A586" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A587" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A588" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B589" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A590" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A591" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B591" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A592" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B592" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A593" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B593" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A594" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A595" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B595" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A596" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A597" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B597" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A598" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A599" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B599" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A600" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B600" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A601" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B601" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A602" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B602" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A603" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B603" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A604" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A605" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B605" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A606" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B606" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A607" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B607" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A608" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B608" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A609" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B609" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A610" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B610" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A611" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A612" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B612" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A613" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B613" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A614" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B614" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A615" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B615" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A616" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B616" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A617" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B617" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A618" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B618" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A619" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B619" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A620" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B620" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A621" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B621" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A622" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B622" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A623" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B623" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A624" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A625" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B625" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A626" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B626" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A627" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B627" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A628" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B628" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A629" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B629" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A630" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B630" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A631" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B631" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A632" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B632" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A633" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B633" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A634" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B634" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A635" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B635" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A636" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B636" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A637" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B637" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A638" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A639" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B639" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A640" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B640" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A641" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B641" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A642" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B642" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A643" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B643" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A644" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B644" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A645" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B645" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A646" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B646" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A647" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B647" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A648" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A649" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B649" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A650" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B650" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A651" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B651" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A652" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B652" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A653" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B653" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A654" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B654" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A655" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B655" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A656" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B656" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A657" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B657" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A658" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B658" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A659" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B659" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A660" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B660" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A661" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B661" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A662" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B662" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A663" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B663" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A664" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B664" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A665" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B665" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A666" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B666" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A667" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B667" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A668" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B668" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A669" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B669" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A670" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B670" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A671" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B671" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A672" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B672" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A673" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B673" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A674" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B674" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A675" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B675" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A676" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B676" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A677" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B677" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A678" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B678" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A679" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B679" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A680" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B680" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A681" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B681" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A682" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B682" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A683" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B683" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A684" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B684" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A685" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B685" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A686" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B686" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A687" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B687" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A688" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B688" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A689" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B689" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A690" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B690" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A691" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B691" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A692" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B692" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A693" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B693" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A694" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B694" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A695" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B695" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A696" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B696" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A697" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B697" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A698" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B698" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A699" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B699" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A700" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B700" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A701" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B701" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A702" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B702" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A703" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B703" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A704" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B704" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A705" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B705" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A706" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B706" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A707" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B707" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A708" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B708" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A709" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B709" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A710" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B710" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A711" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B711" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A712" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B712" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A713" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B713" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A714" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B714" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A715" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B715" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A716" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B716" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A717" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B717" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A718" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B718" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A719" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B719" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A720" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B720" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A721" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B721" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A722" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B722" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A723" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B723" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A724" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B724" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A725" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B725" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A726" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B726" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A727" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B727" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A728" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B728" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A729" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B729" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A730" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B730" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A731" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B731" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A732" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B732" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A733" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B733" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A734" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B734" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A735" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B735" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A736" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B736" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A737" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B737" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A738" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B738" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A739" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B739" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A740" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B740" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A741" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B741" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A742" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B742" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A743" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B743" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A744" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B744" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A745" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B745" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A746" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B746" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A747" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B747" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A748" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B748" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A749" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B749" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A750" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B750" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A751" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B751" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A752" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B752" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A753" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B753" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A754" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B754" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A755" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B755" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A756" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B756" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A757" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B757" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A758" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B758" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A759" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B759" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A760" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B760" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A761" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B761" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A762" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B762" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A763" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B763" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A764" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B764" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A765" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B765" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A766" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B766" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A767" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B767" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A768" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B768" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A769" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B769" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A770" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B770" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A771" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B771" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A772" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B772" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A773" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B773" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A774" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B774" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A775" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B775" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A776" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B776" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A777" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B777" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A778" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B778" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A779" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B779" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A780" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B780" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A781" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B781" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A782" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B782" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A783" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B783" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A784" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B784" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A785" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B785" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A786" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B786" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A787" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B787" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A788" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B788" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A789" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B789" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A790" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B790" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A791" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B791" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A792" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B792" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A793" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B793" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A794" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B794" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A795" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B795" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A796" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B796" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A797" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B797" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A798" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B798" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A799" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B799" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A800" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B800" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A801" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B801" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A802" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B802" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A803" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B803" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A804" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B804" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A805" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B805" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A806" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B806" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A807" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B807" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A808" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B808" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A809" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B809" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A810" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B810" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A811" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B811" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A812" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B812" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A813" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B813" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A814" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B814" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A815" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B815" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A816" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B816" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A817" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B817" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A818" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B818" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A819" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B819" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A820" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B820" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A821" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B821" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A822" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B822" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A823" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B823" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A824" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B824" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A825" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B825" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A826" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B826" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A827" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B827" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A828" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B828" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A829" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B829" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A830" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B830" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A831" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B831" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A832" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B832" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A833" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B833" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A834" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B834" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A835" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B835" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A836" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B836" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A837" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B837" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A838" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B838" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A839" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B839" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A840" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B840" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A841" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B841" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A842" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B842" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A843" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B843" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A844" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B844" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A845" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B845" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A846" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B846" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A847" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B847" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A848" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B848" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A849" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B849" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A850" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B850" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A851" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B851" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A852" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B852" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A853" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B853" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A854" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B854" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A855" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B855" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A856" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B856" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A857" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B857" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A858" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B858" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A859" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B859" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A860" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B860" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A861" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B861" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A862" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B862" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A863" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B863" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A864" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B864" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A865" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B865" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A866" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B866" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A867" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B867" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A868" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B868" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A869" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B869" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A870" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B870" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A871" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B871" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A872" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B872" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A873" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B873" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A874" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B874" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A875" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B875" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A876" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B876" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A877" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B877" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A878" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B878" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A879" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B879" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A880" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B880" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A881" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B881" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A882" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B882" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A883" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B883" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A884" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B884" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A885" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B885" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A886" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B886" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A887" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B887" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A888" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B888" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A889" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B889" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A890" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B890" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A891" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B891" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A892" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B892" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A893" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B893" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A894" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B894" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A895" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B895" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A896" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B896" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A897" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B897" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A898" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B898" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A899" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B899" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A900" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B900" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A901" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B901" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A902" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B902" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A903" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B903" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A904" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B904" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A905" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B905" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A906" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B906" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A907" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B907" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A908" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B908" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A909" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B909" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A910" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B910" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A911" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B911" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A912" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B912" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A913" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B913" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A914" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B914" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A915" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B915" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A916" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B916" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A917" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B917" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A918" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B918" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A919" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B919" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A920" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B920" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A921" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B921" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A922" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B922" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A923" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B923" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A924" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B924" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A925" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B925" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A926" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B926" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A927" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B927" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A928" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B928" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A929" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B929" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A930" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B930" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A931" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B931" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A932" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B932" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A933" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B933" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A934" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B934" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A935" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B935" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A936" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B936" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A937" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B937" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A938" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B938" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A939" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B939" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A940" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B940" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A941" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B941" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A942" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B942" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A943" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B943" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A944" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B944" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A945" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B945" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A946" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B946" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A947" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B947" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A948" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B948" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A949" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B949" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A950" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B950" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A951" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B951" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A952" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B952" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A953" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B953" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A954" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B954" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A955" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B955" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A956" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B956" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A957" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B957" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A958" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B958" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A959" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B959" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A960" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B960" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A961" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B961" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A962" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B962" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A963" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B963" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A964" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B964" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A965" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B965" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A966" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B966" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A967" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B967" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A968" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B968" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A969" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B969" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A970" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B970" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A971" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B971" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A972" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B972" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A973" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B973" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A974" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B974" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A975" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B975" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A976" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B976" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A977" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B977" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A978" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B978" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A979" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B979" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A980" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B980" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A981" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B981" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A982" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B982" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A983" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B983" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A984" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B984" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A985" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B985" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A986" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B986" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A987" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B987" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A988" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B988" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A989" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B989" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A990" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B990" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A991" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B991" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A992" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B992" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A993" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B993" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A994" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B994" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A995" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B995" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A996" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B996" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A997" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B997" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A998" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B998" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A999" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B999" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1000" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1000" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1001" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1001" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1002" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1002" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1003" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1003" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1004" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1004" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1005" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1005" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1006" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1006" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1007" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1007" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1008" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1008" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1009" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1009" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1010" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1010" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1011" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1011" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1012" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1012" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1013" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1013" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1014" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1014" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1015" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1015" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1016" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1016" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1017" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1017" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1018" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1018" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1019" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1019" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1020" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1020" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1021" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1021" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1022" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1022" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1023" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1023" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1024" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1024" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1025" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1025" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1026" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1026" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1027" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1027" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1028" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1028" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1029" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1029" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1030" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1030" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1031" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1031" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1032" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1032" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1033" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1033" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1034" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1034" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1035" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1035" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balra\Downloads\apit\Vocabulary\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="89">
   <si>
     <t>word</t>
   </si>
@@ -299,11 +299,15 @@
   <si>
     <t>The fact of two things being placed together with contrasting effect.</t>
   </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -661,18 +665,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="77.5546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.77734375"/>
+    <col min="2" max="2" customWidth="true" width="77.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
     </row>
@@ -683,7 +687,7 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>71</v>
       </c>
     </row>
@@ -694,7 +698,7 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>71</v>
       </c>
     </row>
@@ -705,7 +709,7 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>71</v>
       </c>
     </row>
@@ -716,7 +720,7 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>71</v>
       </c>
     </row>
@@ -727,7 +731,7 @@
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>71</v>
       </c>
     </row>
@@ -738,7 +742,7 @@
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>71</v>
       </c>
     </row>
@@ -749,7 +753,7 @@
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>71</v>
       </c>
     </row>
@@ -760,7 +764,7 @@
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>71</v>
       </c>
     </row>
@@ -771,7 +775,7 @@
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>71</v>
       </c>
     </row>
@@ -782,7 +786,7 @@
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>71</v>
       </c>
     </row>
@@ -793,6 +797,9 @@
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C12" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -800,6 +807,9 @@
       </c>
       <c r="B13" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -809,6 +819,9 @@
       <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="C14" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -817,6 +830,9 @@
       <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C15" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -825,6 +841,9 @@
       <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="C16" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -833,6 +852,9 @@
       <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="C17" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -841,6 +863,9 @@
       <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="C18" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -849,6 +874,9 @@
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="C19" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -857,6 +885,9 @@
       <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="C20" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -864,6 +895,9 @@
       </c>
       <c r="B21" s="1" t="s">
         <v>42</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -993,6 +1027,9 @@
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C37" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
@@ -1057,6 +1094,9 @@
       <c r="B45" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C45" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
@@ -1073,6 +1113,9 @@
       <c r="B47" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C47" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
@@ -1137,6 +1180,9 @@
       <c r="B55" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C55" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
@@ -1153,6 +1199,9 @@
       <c r="B57" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C57" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
@@ -1217,6 +1266,9 @@
       <c r="B65" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C65" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
@@ -1233,6 +1285,9 @@
       <c r="B67" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C67" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
@@ -1297,6 +1352,9 @@
       <c r="B75" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C75" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
@@ -1313,6 +1371,9 @@
       <c r="B77" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C77" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
@@ -1377,6 +1438,9 @@
       <c r="B85" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C85" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
@@ -1393,6 +1457,9 @@
       <c r="B87" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C87" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
@@ -1457,6 +1524,9 @@
       <c r="B95" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C95" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
@@ -1473,6 +1543,9 @@
       <c r="B97" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C97" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
@@ -1537,6 +1610,9 @@
       <c r="B105" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C105" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
@@ -1553,6 +1629,9 @@
       <c r="B107" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C107" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
@@ -1617,6 +1696,9 @@
       <c r="B115" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C115" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
@@ -1633,6 +1715,9 @@
       <c r="B117" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C117" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
@@ -1697,6 +1782,9 @@
       <c r="B125" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C125" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
@@ -1713,6 +1801,9 @@
       <c r="B127" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C127" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
@@ -1777,6 +1868,9 @@
       <c r="B135" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C135" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
@@ -1793,6 +1887,9 @@
       <c r="B137" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C137" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
@@ -1857,6 +1954,9 @@
       <c r="B145" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C145" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
@@ -1873,6 +1973,9 @@
       <c r="B147" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C147" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
@@ -1937,6 +2040,9 @@
       <c r="B155" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C155" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
@@ -1953,6 +2059,9 @@
       <c r="B157" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C157" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
@@ -2017,6 +2126,9 @@
       <c r="B165" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C165" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
@@ -2033,6 +2145,9 @@
       <c r="B167" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C167" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
@@ -2097,6 +2212,9 @@
       <c r="B175" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C175" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
@@ -2113,6 +2231,9 @@
       <c r="B177" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C177" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
@@ -2177,6 +2298,9 @@
       <c r="B185" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C185" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
@@ -2193,6 +2317,9 @@
       <c r="B187" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C187" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
@@ -2257,6 +2384,9 @@
       <c r="B195" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C195" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
@@ -2273,6 +2403,9 @@
       <c r="B197" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C197" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
@@ -2337,6 +2470,9 @@
       <c r="B205" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C205" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
@@ -2353,6 +2489,9 @@
       <c r="B207" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C207" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
@@ -2417,6 +2556,9 @@
       <c r="B215" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C215" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
@@ -2433,6 +2575,9 @@
       <c r="B217" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C217" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
@@ -2497,6 +2642,9 @@
       <c r="B225" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C225" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
@@ -2513,6 +2661,9 @@
       <c r="B227" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C227" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
@@ -2577,6 +2728,9 @@
       <c r="B235" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C235" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
@@ -2593,6 +2747,9 @@
       <c r="B237" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C237" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
@@ -2657,6 +2814,9 @@
       <c r="B245" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C245" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
@@ -2673,6 +2833,9 @@
       <c r="B247" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C247" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
@@ -2737,6 +2900,9 @@
       <c r="B255" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C255" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
@@ -2753,6 +2919,9 @@
       <c r="B257" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C257" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
@@ -2817,6 +2986,9 @@
       <c r="B265" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C265" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
@@ -2833,6 +3005,9 @@
       <c r="B267" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C267" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
@@ -2897,6 +3072,9 @@
       <c r="B275" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C275" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
@@ -2913,6 +3091,9 @@
       <c r="B277" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C277" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
@@ -2977,6 +3158,9 @@
       <c r="B285" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C285" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
@@ -2993,6 +3177,9 @@
       <c r="B287" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C287" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
@@ -3057,6 +3244,9 @@
       <c r="B295" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C295" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
@@ -3073,6 +3263,9 @@
       <c r="B297" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C297" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
@@ -3137,6 +3330,9 @@
       <c r="B305" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C305" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
@@ -3153,6 +3349,9 @@
       <c r="B307" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C307" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
@@ -3217,6 +3416,9 @@
       <c r="B315" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C315" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
@@ -3233,6 +3435,9 @@
       <c r="B317" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C317" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
@@ -3297,6 +3502,9 @@
       <c r="B325" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C325" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
@@ -3313,6 +3521,9 @@
       <c r="B327" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C327" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
@@ -3377,6 +3588,9 @@
       <c r="B335" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C335" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
@@ -3393,6 +3607,9 @@
       <c r="B337" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C337" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
@@ -3457,6 +3674,9 @@
       <c r="B345" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C345" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
@@ -3473,6 +3693,9 @@
       <c r="B347" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C347" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
@@ -3537,6 +3760,9 @@
       <c r="B355" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C355" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
@@ -3553,6 +3779,9 @@
       <c r="B357" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C357" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
@@ -3617,6 +3846,9 @@
       <c r="B365" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C365" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
@@ -3633,6 +3865,9 @@
       <c r="B367" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C367" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
@@ -3697,6 +3932,9 @@
       <c r="B375" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C375" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
@@ -3713,6 +3951,9 @@
       <c r="B377" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C377" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
@@ -3777,6 +4018,9 @@
       <c r="B385" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C385" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
@@ -3793,6 +4037,9 @@
       <c r="B387" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C387" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
@@ -3857,6 +4104,9 @@
       <c r="B395" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C395" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
@@ -3873,6 +4123,9 @@
       <c r="B397" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C397" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
@@ -3937,6 +4190,9 @@
       <c r="B405" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C405" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
@@ -3953,6 +4209,9 @@
       <c r="B407" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C407" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
@@ -4017,6 +4276,9 @@
       <c r="B415" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C415" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
@@ -4033,6 +4295,9 @@
       <c r="B417" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C417" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
@@ -4097,6 +4362,9 @@
       <c r="B425" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C425" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
@@ -4113,6 +4381,9 @@
       <c r="B427" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C427" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
@@ -4177,6 +4448,9 @@
       <c r="B435" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C435" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
@@ -4193,6 +4467,9 @@
       <c r="B437" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C437" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
@@ -4257,6 +4534,9 @@
       <c r="B445" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C445" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
@@ -4273,6 +4553,9 @@
       <c r="B447" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C447" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" s="2" t="s">
@@ -4337,6 +4620,9 @@
       <c r="B455" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C455" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" s="2" t="s">
@@ -4353,6 +4639,9 @@
       <c r="B457" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C457" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" s="2" t="s">
@@ -4417,6 +4706,9 @@
       <c r="B465" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C465" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" s="2" t="s">
@@ -4433,6 +4725,9 @@
       <c r="B467" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C467" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" s="2" t="s">
@@ -4497,6 +4792,9 @@
       <c r="B475" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C475" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" s="2" t="s">
@@ -4513,6 +4811,9 @@
       <c r="B477" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C477" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" s="2" t="s">
@@ -4577,6 +4878,9 @@
       <c r="B485" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C485" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" s="2" t="s">
@@ -4593,6 +4897,9 @@
       <c r="B487" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C487" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" s="2" t="s">
@@ -4657,6 +4964,9 @@
       <c r="B495" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C495" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" s="2" t="s">
@@ -4673,6 +4983,9 @@
       <c r="B497" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C497" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" s="2" t="s">
@@ -4737,6 +5050,9 @@
       <c r="B505" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C505" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" s="2" t="s">
@@ -4753,6 +5069,9 @@
       <c r="B507" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C507" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" s="2" t="s">
@@ -4817,6 +5136,9 @@
       <c r="B515" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C515" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" s="2" t="s">
@@ -4833,6 +5155,9 @@
       <c r="B517" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C517" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" s="2" t="s">
@@ -4897,6 +5222,9 @@
       <c r="B525" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C525" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" s="2" t="s">
@@ -4913,6 +5241,9 @@
       <c r="B527" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C527" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" s="2" t="s">
@@ -4977,6 +5308,9 @@
       <c r="B535" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C535" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" s="2" t="s">
@@ -4993,6 +5327,9 @@
       <c r="B537" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C537" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538" s="2" t="s">
@@ -5057,6 +5394,9 @@
       <c r="B545" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C545" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" s="2" t="s">
@@ -5073,6 +5413,9 @@
       <c r="B547" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C547" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" s="2" t="s">
@@ -5137,6 +5480,9 @@
       <c r="B555" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C555" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556" s="2" t="s">
@@ -5153,6 +5499,9 @@
       <c r="B557" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C557" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558" s="2" t="s">
@@ -5217,6 +5566,9 @@
       <c r="B565" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C565" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" s="2" t="s">
@@ -5233,6 +5585,9 @@
       <c r="B567" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C567" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" s="2" t="s">
@@ -5297,6 +5652,9 @@
       <c r="B575" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C575" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" s="2" t="s">
@@ -5313,6 +5671,9 @@
       <c r="B577" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C577" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" s="2" t="s">
@@ -5377,6 +5738,9 @@
       <c r="B585" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C585" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" s="2" t="s">
@@ -5393,6 +5757,9 @@
       <c r="B587" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C587" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588" s="2" t="s">
@@ -5457,6 +5824,9 @@
       <c r="B595" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C595" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" s="2" t="s">
@@ -5473,6 +5843,9 @@
       <c r="B597" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C597" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" s="2" t="s">
@@ -5537,6 +5910,9 @@
       <c r="B605" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C605" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606" s="2" t="s">
@@ -5553,6 +5929,9 @@
       <c r="B607" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C607" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608" s="2" t="s">
@@ -5617,6 +5996,9 @@
       <c r="B615" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C615" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616" s="2" t="s">
@@ -5633,6 +6015,9 @@
       <c r="B617" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C617" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618" s="2" t="s">
@@ -5697,6 +6082,9 @@
       <c r="B625" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C625" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A626" s="2" t="s">
@@ -5713,6 +6101,9 @@
       <c r="B627" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C627" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A628" s="2" t="s">
@@ -5777,6 +6168,9 @@
       <c r="B635" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C635" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A636" s="2" t="s">
@@ -5793,6 +6187,9 @@
       <c r="B637" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C637" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A638" s="2" t="s">
@@ -5857,6 +6254,9 @@
       <c r="B645" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C645" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A646" s="2" t="s">
@@ -5873,6 +6273,9 @@
       <c r="B647" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C647" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A648" s="2" t="s">
@@ -5937,6 +6340,9 @@
       <c r="B655" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C655" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A656" s="2" t="s">
@@ -5953,6 +6359,9 @@
       <c r="B657" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C657" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A658" s="2" t="s">
@@ -6017,6 +6426,9 @@
       <c r="B665" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C665" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A666" s="2" t="s">
@@ -6033,6 +6445,9 @@
       <c r="B667" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C667" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A668" s="2" t="s">
@@ -6097,6 +6512,9 @@
       <c r="B675" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C675" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A676" s="2" t="s">
@@ -6113,6 +6531,9 @@
       <c r="B677" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C677" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A678" s="2" t="s">
@@ -6177,6 +6598,9 @@
       <c r="B685" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C685" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A686" s="2" t="s">
@@ -6193,6 +6617,9 @@
       <c r="B687" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C687" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A688" s="2" t="s">
@@ -6257,6 +6684,9 @@
       <c r="B695" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C695" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A696" s="2" t="s">
@@ -6273,6 +6703,9 @@
       <c r="B697" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C697" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A698" s="2" t="s">
@@ -6337,6 +6770,9 @@
       <c r="B705" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C705" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A706" s="2" t="s">
@@ -6353,6 +6789,9 @@
       <c r="B707" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C707" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A708" s="2" t="s">
@@ -6417,6 +6856,9 @@
       <c r="B715" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C715" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A716" s="2" t="s">
@@ -6433,6 +6875,9 @@
       <c r="B717" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C717" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A718" s="2" t="s">
@@ -6497,6 +6942,9 @@
       <c r="B725" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C725" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A726" s="2" t="s">
@@ -6513,6 +6961,9 @@
       <c r="B727" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C727" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A728" s="2" t="s">
@@ -6577,6 +7028,9 @@
       <c r="B735" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C735" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A736" s="2" t="s">
@@ -6593,6 +7047,9 @@
       <c r="B737" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C737" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A738" s="2" t="s">
@@ -6657,6 +7114,9 @@
       <c r="B745" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C745" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A746" s="2" t="s">
@@ -6673,6 +7133,9 @@
       <c r="B747" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C747" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A748" s="2" t="s">
@@ -6737,6 +7200,9 @@
       <c r="B755" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C755" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A756" s="2" t="s">
@@ -6753,6 +7219,9 @@
       <c r="B757" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C757" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A758" s="2" t="s">
@@ -6817,6 +7286,9 @@
       <c r="B765" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C765" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A766" s="2" t="s">
@@ -6833,6 +7305,9 @@
       <c r="B767" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C767" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A768" s="2" t="s">
@@ -6897,6 +7372,9 @@
       <c r="B775" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C775" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A776" s="2" t="s">
@@ -6913,6 +7391,9 @@
       <c r="B777" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C777" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A778" s="2" t="s">
@@ -6977,6 +7458,9 @@
       <c r="B785" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C785" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A786" s="2" t="s">
@@ -6993,6 +7477,9 @@
       <c r="B787" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C787" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A788" s="2" t="s">
@@ -7057,6 +7544,9 @@
       <c r="B795" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C795" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A796" s="2" t="s">
@@ -7073,6 +7563,9 @@
       <c r="B797" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C797" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A798" s="2" t="s">
@@ -7137,6 +7630,9 @@
       <c r="B805" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C805" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A806" s="2" t="s">
@@ -7153,6 +7649,9 @@
       <c r="B807" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C807" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A808" s="2" t="s">
@@ -7217,6 +7716,9 @@
       <c r="B815" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C815" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A816" s="2" t="s">
@@ -7233,6 +7735,9 @@
       <c r="B817" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C817" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A818" s="2" t="s">
@@ -7297,6 +7802,9 @@
       <c r="B825" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C825" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A826" s="2" t="s">
@@ -7313,6 +7821,9 @@
       <c r="B827" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C827" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A828" s="2" t="s">
@@ -7377,6 +7888,9 @@
       <c r="B835" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C835" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A836" s="2" t="s">
@@ -7393,6 +7907,9 @@
       <c r="B837" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C837" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A838" s="2" t="s">
@@ -7457,6 +7974,9 @@
       <c r="B845" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C845" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A846" s="2" t="s">
@@ -7473,6 +7993,9 @@
       <c r="B847" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C847" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A848" s="2" t="s">
@@ -7537,6 +8060,9 @@
       <c r="B855" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C855" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A856" s="2" t="s">
@@ -7553,6 +8079,9 @@
       <c r="B857" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C857" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A858" s="2" t="s">
@@ -7617,6 +8146,9 @@
       <c r="B865" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C865" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A866" s="2" t="s">
@@ -7633,6 +8165,9 @@
       <c r="B867" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C867" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A868" s="2" t="s">
@@ -7697,6 +8232,9 @@
       <c r="B875" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C875" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A876" s="2" t="s">
@@ -7713,6 +8251,9 @@
       <c r="B877" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C877" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A878" s="2" t="s">
@@ -7777,6 +8318,9 @@
       <c r="B885" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C885" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A886" s="2" t="s">
@@ -7793,6 +8337,9 @@
       <c r="B887" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C887" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A888" s="2" t="s">
@@ -7857,6 +8404,9 @@
       <c r="B895" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C895" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A896" s="2" t="s">
@@ -7873,6 +8423,9 @@
       <c r="B897" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C897" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A898" s="2" t="s">
@@ -7937,6 +8490,9 @@
       <c r="B905" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C905" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A906" s="2" t="s">
@@ -7953,6 +8509,9 @@
       <c r="B907" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C907" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A908" s="2" t="s">
@@ -8017,6 +8576,9 @@
       <c r="B915" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C915" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A916" s="2" t="s">
@@ -8033,6 +8595,9 @@
       <c r="B917" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C917" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A918" s="2" t="s">
@@ -8097,6 +8662,9 @@
       <c r="B925" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C925" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A926" s="2" t="s">
@@ -8113,6 +8681,9 @@
       <c r="B927" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C927" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A928" s="2" t="s">
@@ -8177,6 +8748,9 @@
       <c r="B935" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C935" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A936" s="2" t="s">
@@ -8193,6 +8767,9 @@
       <c r="B937" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C937" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A938" s="2" t="s">
@@ -8257,6 +8834,9 @@
       <c r="B945" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C945" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A946" s="2" t="s">
@@ -8273,6 +8853,9 @@
       <c r="B947" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C947" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A948" s="2" t="s">
@@ -8337,6 +8920,9 @@
       <c r="B955" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C955" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A956" s="2" t="s">
@@ -8353,6 +8939,9 @@
       <c r="B957" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C957" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A958" s="2" t="s">
@@ -8417,6 +9006,9 @@
       <c r="B965" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C965" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A966" s="2" t="s">
@@ -8433,6 +9025,9 @@
       <c r="B967" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C967" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A968" s="2" t="s">
@@ -8497,6 +9092,9 @@
       <c r="B975" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C975" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A976" s="2" t="s">
@@ -8513,6 +9111,9 @@
       <c r="B977" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C977" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A978" s="2" t="s">
@@ -8577,6 +9178,9 @@
       <c r="B985" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C985" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A986" s="2" t="s">
@@ -8593,6 +9197,9 @@
       <c r="B987" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C987" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A988" s="2" t="s">
@@ -8657,6 +9264,9 @@
       <c r="B995" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C995" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A996" s="2" t="s">
@@ -8673,6 +9283,9 @@
       <c r="B997" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C997" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A998" s="2" t="s">
@@ -8737,6 +9350,9 @@
       <c r="B1005" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C1005" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1006" s="2" t="s">
@@ -8753,6 +9369,9 @@
       <c r="B1007" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C1007" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1008" s="2" t="s">
@@ -8817,6 +9436,9 @@
       <c r="B1015" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C1015" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1016" s="2" t="s">
@@ -8833,6 +9455,9 @@
       <c r="B1017" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C1017" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1018" s="2" t="s">
@@ -8897,6 +9522,9 @@
       <c r="B1025" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C1025" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1026" s="2" t="s">
@@ -8913,6 +9541,9 @@
       <c r="B1027" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C1027" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1028" s="2" t="s">
@@ -8976,6 +9607,9 @@
       </c>
       <c r="B1035" s="2" t="s">
         <v>87</v>
+      </c>
+      <c r="C1035" t="s" s="0">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2490" uniqueCount="88">
   <si>
     <t>word</t>
   </si>
@@ -727,6 +727,9 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C6" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -735,6 +738,9 @@
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C7" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -743,6 +749,9 @@
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C8" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="9" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -751,6 +760,9 @@
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C9" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -758,6 +770,9 @@
       </c>
       <c r="B10" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2490" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="88">
   <si>
     <t>word</t>
   </si>
@@ -782,6 +782,9 @@
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C11" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -790,6 +793,9 @@
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C12" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -797,6 +803,9 @@
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -806,6 +815,9 @@
       <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C14" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -814,6 +826,9 @@
       <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="C15" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -990,6 +1005,9 @@
       <c r="B37" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C37" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s" s="0">
@@ -1076,6 +1094,9 @@
       <c r="B47" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C47" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s" s="0">
@@ -1162,6 +1183,9 @@
       <c r="B57" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C57" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s" s="0">
@@ -1248,6 +1272,9 @@
       <c r="B67" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C67" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s" s="0">
@@ -1334,6 +1361,9 @@
       <c r="B77" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C77" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s" s="0">
@@ -1420,6 +1450,9 @@
       <c r="B87" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C87" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s" s="0">
@@ -1506,6 +1539,9 @@
       <c r="B97" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C97" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s" s="0">
@@ -1592,6 +1628,9 @@
       <c r="B107" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C107" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s" s="0">
@@ -1678,6 +1717,9 @@
       <c r="B117" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C117" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s" s="0">
@@ -1764,6 +1806,9 @@
       <c r="B127" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C127" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s" s="0">
@@ -1850,6 +1895,9 @@
       <c r="B137" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C137" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s" s="0">
@@ -1936,6 +1984,9 @@
       <c r="B147" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C147" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s" s="0">
@@ -2022,6 +2073,9 @@
       <c r="B157" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C157" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s" s="0">
@@ -2108,6 +2162,9 @@
       <c r="B167" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C167" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s" s="0">
@@ -2194,6 +2251,9 @@
       <c r="B177" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C177" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s" s="0">
@@ -2280,6 +2340,9 @@
       <c r="B187" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C187" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s" s="0">
@@ -2366,6 +2429,9 @@
       <c r="B197" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C197" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s" s="0">
@@ -2452,6 +2518,9 @@
       <c r="B207" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C207" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s" s="0">
@@ -2538,6 +2607,9 @@
       <c r="B217" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C217" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s" s="0">
@@ -2624,6 +2696,9 @@
       <c r="B227" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C227" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s" s="0">
@@ -2710,6 +2785,9 @@
       <c r="B237" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C237" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s" s="0">
@@ -2796,6 +2874,9 @@
       <c r="B247" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C247" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s" s="0">
@@ -2882,6 +2963,9 @@
       <c r="B257" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C257" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s" s="0">
@@ -2968,6 +3052,9 @@
       <c r="B267" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C267" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s" s="0">
@@ -3054,6 +3141,9 @@
       <c r="B277" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C277" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s" s="0">
@@ -3140,6 +3230,9 @@
       <c r="B287" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C287" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s" s="0">
@@ -3226,6 +3319,9 @@
       <c r="B297" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C297" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s" s="0">
@@ -3312,6 +3408,9 @@
       <c r="B307" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C307" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s" s="0">
@@ -3398,6 +3497,9 @@
       <c r="B317" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C317" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s" s="0">
@@ -3484,6 +3586,9 @@
       <c r="B327" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C327" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s" s="0">
@@ -3570,6 +3675,9 @@
       <c r="B337" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C337" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s" s="0">
@@ -3656,6 +3764,9 @@
       <c r="B347" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C347" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s" s="0">
@@ -3742,6 +3853,9 @@
       <c r="B357" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C357" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s" s="0">
@@ -3828,6 +3942,9 @@
       <c r="B367" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C367" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s" s="0">
@@ -3914,6 +4031,9 @@
       <c r="B377" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C377" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s" s="0">
@@ -4000,6 +4120,9 @@
       <c r="B387" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C387" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s" s="0">
@@ -4086,6 +4209,9 @@
       <c r="B397" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C397" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s" s="0">
@@ -4172,6 +4298,9 @@
       <c r="B407" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C407" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s" s="0">
@@ -4258,6 +4387,9 @@
       <c r="B417" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C417" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s" s="0">
@@ -4344,6 +4476,9 @@
       <c r="B427" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C427" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s" s="0">
@@ -4430,6 +4565,9 @@
       <c r="B437" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C437" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s" s="0">
@@ -4516,6 +4654,9 @@
       <c r="B447" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C447" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s" s="0">
@@ -4602,6 +4743,9 @@
       <c r="B457" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C457" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s" s="0">
@@ -4688,6 +4832,9 @@
       <c r="B467" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C467" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s" s="0">
@@ -4774,6 +4921,9 @@
       <c r="B477" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C477" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s" s="0">
@@ -4860,6 +5010,9 @@
       <c r="B487" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C487" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s" s="0">
@@ -4946,6 +5099,9 @@
       <c r="B497" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C497" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s" s="0">
@@ -5032,6 +5188,9 @@
       <c r="B507" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C507" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s" s="0">
@@ -5118,6 +5277,9 @@
       <c r="B517" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C517" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" t="s" s="0">
@@ -5204,6 +5366,9 @@
       <c r="B527" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C527" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" t="s" s="0">
@@ -5290,6 +5455,9 @@
       <c r="B537" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C537" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538" t="s" s="0">
@@ -5376,6 +5544,9 @@
       <c r="B547" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C547" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" t="s" s="0">
@@ -5462,6 +5633,9 @@
       <c r="B557" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C557" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558" t="s" s="0">
@@ -5548,6 +5722,9 @@
       <c r="B567" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C567" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" t="s" s="0">
@@ -5634,6 +5811,9 @@
       <c r="B577" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C577" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" t="s" s="0">
@@ -5720,6 +5900,9 @@
       <c r="B587" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C587" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588" t="s" s="0">
@@ -5806,6 +5989,9 @@
       <c r="B597" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C597" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" t="s" s="0">
@@ -5892,6 +6078,9 @@
       <c r="B607" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C607" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608" t="s" s="0">
@@ -5978,6 +6167,9 @@
       <c r="B617" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C617" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618" t="s" s="0">
@@ -6064,6 +6256,9 @@
       <c r="B627" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C627" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A628" t="s" s="0">
@@ -6150,6 +6345,9 @@
       <c r="B637" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C637" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A638" t="s" s="0">
@@ -6236,6 +6434,9 @@
       <c r="B647" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C647" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A648" t="s" s="0">
@@ -6322,6 +6523,9 @@
       <c r="B657" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C657" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A658" t="s" s="0">
@@ -6408,6 +6612,9 @@
       <c r="B667" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C667" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A668" t="s" s="0">
@@ -6494,6 +6701,9 @@
       <c r="B677" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C677" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A678" t="s" s="0">
@@ -6580,6 +6790,9 @@
       <c r="B687" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C687" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A688" t="s" s="0">
@@ -6666,6 +6879,9 @@
       <c r="B697" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C697" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A698" t="s" s="0">
@@ -6752,6 +6968,9 @@
       <c r="B707" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C707" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A708" t="s" s="0">
@@ -6838,6 +7057,9 @@
       <c r="B717" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C717" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A718" t="s" s="0">
@@ -6924,6 +7146,9 @@
       <c r="B727" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C727" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A728" t="s" s="0">
@@ -7010,6 +7235,9 @@
       <c r="B737" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C737" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A738" t="s" s="0">
@@ -7096,6 +7324,9 @@
       <c r="B747" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C747" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A748" t="s" s="0">
@@ -7182,6 +7413,9 @@
       <c r="B757" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C757" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A758" t="s" s="0">
@@ -7268,6 +7502,9 @@
       <c r="B767" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C767" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A768" t="s" s="0">
@@ -7354,6 +7591,9 @@
       <c r="B777" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C777" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A778" t="s" s="0">
@@ -7440,6 +7680,9 @@
       <c r="B787" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C787" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A788" t="s" s="0">
@@ -7526,6 +7769,9 @@
       <c r="B797" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C797" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A798" t="s" s="0">
@@ -7612,6 +7858,9 @@
       <c r="B807" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C807" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A808" t="s" s="0">
@@ -7698,6 +7947,9 @@
       <c r="B817" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C817" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A818" t="s" s="0">
@@ -7784,6 +8036,9 @@
       <c r="B827" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C827" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A828" t="s" s="0">
@@ -7870,6 +8125,9 @@
       <c r="B837" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C837" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A838" t="s" s="0">
@@ -7956,6 +8214,9 @@
       <c r="B847" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C847" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A848" t="s" s="0">
@@ -8042,6 +8303,9 @@
       <c r="B857" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C857" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A858" t="s" s="0">
@@ -8128,6 +8392,9 @@
       <c r="B867" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C867" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A868" t="s" s="0">
@@ -8214,6 +8481,9 @@
       <c r="B877" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C877" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A878" t="s" s="0">
@@ -8300,6 +8570,9 @@
       <c r="B887" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C887" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A888" t="s" s="0">
@@ -8386,6 +8659,9 @@
       <c r="B897" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C897" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A898" t="s" s="0">
@@ -8472,6 +8748,9 @@
       <c r="B907" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C907" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A908" t="s" s="0">
@@ -8558,6 +8837,9 @@
       <c r="B917" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C917" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A918" t="s" s="0">
@@ -8644,6 +8926,9 @@
       <c r="B927" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C927" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A928" t="s" s="0">
@@ -8730,6 +9015,9 @@
       <c r="B937" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C937" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A938" t="s" s="0">
@@ -8816,6 +9104,9 @@
       <c r="B947" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C947" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A948" t="s" s="0">
@@ -8902,6 +9193,9 @@
       <c r="B957" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C957" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A958" t="s" s="0">
@@ -8988,6 +9282,9 @@
       <c r="B967" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C967" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A968" t="s" s="0">
@@ -9074,6 +9371,9 @@
       <c r="B977" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C977" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A978" t="s" s="0">
@@ -9160,6 +9460,9 @@
       <c r="B987" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C987" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A988" t="s" s="0">
@@ -9246,6 +9549,9 @@
       <c r="B997" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C997" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A998" t="s" s="0">
@@ -9332,6 +9638,9 @@
       <c r="B1007" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C1007" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1008" t="s" s="0">
@@ -9418,6 +9727,9 @@
       <c r="B1017" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="C1017" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1018" t="s" s="0">
@@ -9503,6 +9815,9 @@
       </c>
       <c r="B1027" t="s" s="0">
         <v>72</v>
+      </c>
+      <c r="C1027" t="s" s="0">
+        <v>87</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.3">

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="88">
   <si>
     <t>word</t>
   </si>
@@ -837,6 +837,9 @@
       <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="C16" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -845,6 +848,9 @@
       <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="C17" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -853,6 +859,9 @@
       <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="C18" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -861,6 +870,9 @@
       <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="C19" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -868,6 +880,9 @@
       </c>
       <c r="B20" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2920" uniqueCount="88">
   <si>
     <t>word</t>
   </si>
@@ -892,6 +892,9 @@
       <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="C21" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -900,6 +903,9 @@
       <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="C22" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -908,6 +914,9 @@
       <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="C23" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
@@ -916,6 +925,9 @@
       <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="C24" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -924,6 +936,9 @@
       <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="C25" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -1093,6 +1108,9 @@
       <c r="B45" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C45" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s" s="0">
@@ -1182,6 +1200,9 @@
       <c r="B55" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C55" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s" s="0">
@@ -1271,6 +1292,9 @@
       <c r="B65" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C65" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s" s="0">
@@ -1360,6 +1384,9 @@
       <c r="B75" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C75" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s" s="0">
@@ -1449,6 +1476,9 @@
       <c r="B85" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C85" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s" s="0">
@@ -1538,6 +1568,9 @@
       <c r="B95" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C95" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s" s="0">
@@ -1627,6 +1660,9 @@
       <c r="B105" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C105" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s" s="0">
@@ -1716,6 +1752,9 @@
       <c r="B115" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C115" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s" s="0">
@@ -1805,6 +1844,9 @@
       <c r="B125" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C125" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s" s="0">
@@ -1894,6 +1936,9 @@
       <c r="B135" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C135" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s" s="0">
@@ -1983,6 +2028,9 @@
       <c r="B145" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C145" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s" s="0">
@@ -2072,6 +2120,9 @@
       <c r="B155" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C155" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s" s="0">
@@ -2161,6 +2212,9 @@
       <c r="B165" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C165" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s" s="0">
@@ -2250,6 +2304,9 @@
       <c r="B175" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C175" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s" s="0">
@@ -2339,6 +2396,9 @@
       <c r="B185" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C185" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s" s="0">
@@ -2428,6 +2488,9 @@
       <c r="B195" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C195" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s" s="0">
@@ -2517,6 +2580,9 @@
       <c r="B205" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C205" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s" s="0">
@@ -2606,6 +2672,9 @@
       <c r="B215" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C215" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s" s="0">
@@ -2695,6 +2764,9 @@
       <c r="B225" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C225" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s" s="0">
@@ -2784,6 +2856,9 @@
       <c r="B235" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C235" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s" s="0">
@@ -2873,6 +2948,9 @@
       <c r="B245" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C245" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s" s="0">
@@ -2962,6 +3040,9 @@
       <c r="B255" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C255" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s" s="0">
@@ -3051,6 +3132,9 @@
       <c r="B265" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C265" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s" s="0">
@@ -3140,6 +3224,9 @@
       <c r="B275" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C275" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s" s="0">
@@ -3229,6 +3316,9 @@
       <c r="B285" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C285" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s" s="0">
@@ -3318,6 +3408,9 @@
       <c r="B295" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C295" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s" s="0">
@@ -3407,6 +3500,9 @@
       <c r="B305" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C305" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s" s="0">
@@ -3496,6 +3592,9 @@
       <c r="B315" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C315" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s" s="0">
@@ -3585,6 +3684,9 @@
       <c r="B325" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C325" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s" s="0">
@@ -3674,6 +3776,9 @@
       <c r="B335" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C335" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s" s="0">
@@ -3763,6 +3868,9 @@
       <c r="B345" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C345" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s" s="0">
@@ -3852,6 +3960,9 @@
       <c r="B355" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C355" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s" s="0">
@@ -3941,6 +4052,9 @@
       <c r="B365" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C365" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s" s="0">
@@ -4030,6 +4144,9 @@
       <c r="B375" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C375" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s" s="0">
@@ -4119,6 +4236,9 @@
       <c r="B385" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C385" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s" s="0">
@@ -4208,6 +4328,9 @@
       <c r="B395" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C395" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s" s="0">
@@ -4297,6 +4420,9 @@
       <c r="B405" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C405" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s" s="0">
@@ -4386,6 +4512,9 @@
       <c r="B415" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C415" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s" s="0">
@@ -4475,6 +4604,9 @@
       <c r="B425" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C425" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s" s="0">
@@ -4564,6 +4696,9 @@
       <c r="B435" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C435" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s" s="0">
@@ -4653,6 +4788,9 @@
       <c r="B445" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C445" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s" s="0">
@@ -4742,6 +4880,9 @@
       <c r="B455" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C455" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s" s="0">
@@ -4831,6 +4972,9 @@
       <c r="B465" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C465" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s" s="0">
@@ -4920,6 +5064,9 @@
       <c r="B475" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C475" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s" s="0">
@@ -5009,6 +5156,9 @@
       <c r="B485" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C485" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s" s="0">
@@ -5098,6 +5248,9 @@
       <c r="B495" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C495" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s" s="0">
@@ -5187,6 +5340,9 @@
       <c r="B505" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C505" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s" s="0">
@@ -5276,6 +5432,9 @@
       <c r="B515" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C515" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" t="s" s="0">
@@ -5365,6 +5524,9 @@
       <c r="B525" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C525" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" t="s" s="0">
@@ -5454,6 +5616,9 @@
       <c r="B535" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C535" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" t="s" s="0">
@@ -5543,6 +5708,9 @@
       <c r="B545" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C545" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" t="s" s="0">
@@ -5632,6 +5800,9 @@
       <c r="B555" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C555" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556" t="s" s="0">
@@ -5721,6 +5892,9 @@
       <c r="B565" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C565" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" t="s" s="0">
@@ -5810,6 +5984,9 @@
       <c r="B575" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C575" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" t="s" s="0">
@@ -5899,6 +6076,9 @@
       <c r="B585" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C585" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" t="s" s="0">
@@ -5988,6 +6168,9 @@
       <c r="B595" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C595" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" t="s" s="0">
@@ -6077,6 +6260,9 @@
       <c r="B605" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C605" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606" t="s" s="0">
@@ -6166,6 +6352,9 @@
       <c r="B615" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C615" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616" t="s" s="0">
@@ -6255,6 +6444,9 @@
       <c r="B625" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C625" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A626" t="s" s="0">
@@ -6344,6 +6536,9 @@
       <c r="B635" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C635" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A636" t="s" s="0">
@@ -6433,6 +6628,9 @@
       <c r="B645" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C645" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A646" t="s" s="0">
@@ -6522,6 +6720,9 @@
       <c r="B655" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C655" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A656" t="s" s="0">
@@ -6611,6 +6812,9 @@
       <c r="B665" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C665" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A666" t="s" s="0">
@@ -6700,6 +6904,9 @@
       <c r="B675" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C675" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A676" t="s" s="0">
@@ -6789,6 +6996,9 @@
       <c r="B685" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C685" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A686" t="s" s="0">
@@ -6878,6 +7088,9 @@
       <c r="B695" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C695" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A696" t="s" s="0">
@@ -6967,6 +7180,9 @@
       <c r="B705" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C705" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A706" t="s" s="0">
@@ -7056,6 +7272,9 @@
       <c r="B715" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C715" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A716" t="s" s="0">
@@ -7145,6 +7364,9 @@
       <c r="B725" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C725" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A726" t="s" s="0">
@@ -7234,6 +7456,9 @@
       <c r="B735" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C735" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A736" t="s" s="0">
@@ -7323,6 +7548,9 @@
       <c r="B745" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C745" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A746" t="s" s="0">
@@ -7412,6 +7640,9 @@
       <c r="B755" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C755" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A756" t="s" s="0">
@@ -7501,6 +7732,9 @@
       <c r="B765" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C765" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A766" t="s" s="0">
@@ -7590,6 +7824,9 @@
       <c r="B775" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C775" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A776" t="s" s="0">
@@ -7679,6 +7916,9 @@
       <c r="B785" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C785" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A786" t="s" s="0">
@@ -7768,6 +8008,9 @@
       <c r="B795" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C795" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A796" t="s" s="0">
@@ -7857,6 +8100,9 @@
       <c r="B805" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C805" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A806" t="s" s="0">
@@ -7946,6 +8192,9 @@
       <c r="B815" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C815" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A816" t="s" s="0">
@@ -8035,6 +8284,9 @@
       <c r="B825" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C825" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A826" t="s" s="0">
@@ -8124,6 +8376,9 @@
       <c r="B835" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C835" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A836" t="s" s="0">
@@ -8213,6 +8468,9 @@
       <c r="B845" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C845" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A846" t="s" s="0">
@@ -8302,6 +8560,9 @@
       <c r="B855" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C855" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A856" t="s" s="0">
@@ -8391,6 +8652,9 @@
       <c r="B865" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C865" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A866" t="s" s="0">
@@ -8480,6 +8744,9 @@
       <c r="B875" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C875" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A876" t="s" s="0">
@@ -8569,6 +8836,9 @@
       <c r="B885" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C885" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A886" t="s" s="0">
@@ -8658,6 +8928,9 @@
       <c r="B895" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C895" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A896" t="s" s="0">
@@ -8747,6 +9020,9 @@
       <c r="B905" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C905" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A906" t="s" s="0">
@@ -8836,6 +9112,9 @@
       <c r="B915" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C915" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A916" t="s" s="0">
@@ -8925,6 +9204,9 @@
       <c r="B925" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C925" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A926" t="s" s="0">
@@ -9014,6 +9296,9 @@
       <c r="B935" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C935" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A936" t="s" s="0">
@@ -9103,6 +9388,9 @@
       <c r="B945" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C945" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A946" t="s" s="0">
@@ -9192,6 +9480,9 @@
       <c r="B955" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C955" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A956" t="s" s="0">
@@ -9281,6 +9572,9 @@
       <c r="B965" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C965" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A966" t="s" s="0">
@@ -9370,6 +9664,9 @@
       <c r="B975" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C975" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A976" t="s" s="0">
@@ -9459,6 +9756,9 @@
       <c r="B985" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C985" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A986" t="s" s="0">
@@ -9548,6 +9848,9 @@
       <c r="B995" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C995" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A996" t="s" s="0">
@@ -9637,6 +9940,9 @@
       <c r="B1005" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C1005" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1006" t="s" s="0">
@@ -9726,6 +10032,9 @@
       <c r="B1015" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C1015" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1016" t="s" s="0">
@@ -9815,6 +10124,9 @@
       <c r="B1025" t="s" s="0">
         <v>85</v>
       </c>
+      <c r="C1025" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1026" t="s" s="0">
@@ -9903,6 +10215,9 @@
       </c>
       <c r="B1035" t="s" s="0">
         <v>85</v>
+      </c>
+      <c r="C1035" t="s" s="0">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2920" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="88">
   <si>
     <t>word</t>
   </si>
@@ -947,6 +947,9 @@
       <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="C26" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -955,6 +958,9 @@
       <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="C27" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -963,6 +969,9 @@
       <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="C28" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
@@ -971,6 +980,9 @@
       <c r="B29" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="C29" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
@@ -978,6 +990,9 @@
       </c>
       <c r="B30" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2940" uniqueCount="88">
   <si>
     <t>word</t>
   </si>
@@ -1002,6 +1002,9 @@
       <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="C31" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -1010,6 +1013,9 @@
       <c r="B32" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="C32" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
@@ -1018,6 +1024,9 @@
       <c r="B33" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="C33" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
@@ -1026,6 +1035,9 @@
       <c r="B34" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="C34" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -1033,6 +1045,9 @@
       </c>
       <c r="B35" s="1" t="s">
         <v>69</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2940" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3940" uniqueCount="88">
   <si>
     <t>word</t>
   </si>
@@ -1057,6 +1057,9 @@
       <c r="B36" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C36" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s" s="0">
@@ -1076,6 +1079,9 @@
       <c r="B38" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C38" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s" s="0">
@@ -1084,6 +1090,9 @@
       <c r="B39" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C39" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s" s="0">
@@ -1103,6 +1112,9 @@
       <c r="B41" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C41" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s" s="0">
@@ -1111,6 +1123,9 @@
       <c r="B42" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C42" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s" s="0">
@@ -1149,6 +1164,9 @@
       <c r="B46" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C46" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s" s="0">
@@ -1168,6 +1186,9 @@
       <c r="B48" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C48" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s" s="0">
@@ -1176,6 +1197,9 @@
       <c r="B49" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C49" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s" s="0">
@@ -1195,6 +1219,9 @@
       <c r="B51" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C51" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s" s="0">
@@ -1203,6 +1230,9 @@
       <c r="B52" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C52" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s" s="0">
@@ -1241,6 +1271,9 @@
       <c r="B56" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C56" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s" s="0">
@@ -1260,6 +1293,9 @@
       <c r="B58" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C58" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s" s="0">
@@ -1268,6 +1304,9 @@
       <c r="B59" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C59" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s" s="0">
@@ -1287,6 +1326,9 @@
       <c r="B61" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C61" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s" s="0">
@@ -1295,6 +1337,9 @@
       <c r="B62" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C62" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s" s="0">
@@ -1333,6 +1378,9 @@
       <c r="B66" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C66" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s" s="0">
@@ -1352,6 +1400,9 @@
       <c r="B68" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C68" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s" s="0">
@@ -1360,6 +1411,9 @@
       <c r="B69" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C69" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s" s="0">
@@ -1379,6 +1433,9 @@
       <c r="B71" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C71" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s" s="0">
@@ -1387,6 +1444,9 @@
       <c r="B72" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C72" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s" s="0">
@@ -1425,6 +1485,9 @@
       <c r="B76" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C76" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s" s="0">
@@ -1444,6 +1507,9 @@
       <c r="B78" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C78" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s" s="0">
@@ -1452,6 +1518,9 @@
       <c r="B79" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C79" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s" s="0">
@@ -1471,6 +1540,9 @@
       <c r="B81" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C81" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s" s="0">
@@ -1479,6 +1551,9 @@
       <c r="B82" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C82" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s" s="0">
@@ -1517,6 +1592,9 @@
       <c r="B86" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C86" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s" s="0">
@@ -1536,6 +1614,9 @@
       <c r="B88" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C88" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s" s="0">
@@ -1544,6 +1625,9 @@
       <c r="B89" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C89" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s" s="0">
@@ -1563,6 +1647,9 @@
       <c r="B91" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C91" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s" s="0">
@@ -1571,6 +1658,9 @@
       <c r="B92" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C92" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s" s="0">
@@ -1609,6 +1699,9 @@
       <c r="B96" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C96" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s" s="0">
@@ -1628,6 +1721,9 @@
       <c r="B98" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C98" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s" s="0">
@@ -1636,6 +1732,9 @@
       <c r="B99" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C99" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s" s="0">
@@ -1655,6 +1754,9 @@
       <c r="B101" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C101" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s" s="0">
@@ -1663,6 +1765,9 @@
       <c r="B102" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C102" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s" s="0">
@@ -1701,6 +1806,9 @@
       <c r="B106" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C106" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s" s="0">
@@ -1720,6 +1828,9 @@
       <c r="B108" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C108" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s" s="0">
@@ -1728,6 +1839,9 @@
       <c r="B109" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C109" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s" s="0">
@@ -1747,6 +1861,9 @@
       <c r="B111" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C111" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s" s="0">
@@ -1755,6 +1872,9 @@
       <c r="B112" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C112" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s" s="0">
@@ -1793,6 +1913,9 @@
       <c r="B116" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C116" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s" s="0">
@@ -1812,6 +1935,9 @@
       <c r="B118" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C118" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s" s="0">
@@ -1820,6 +1946,9 @@
       <c r="B119" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C119" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s" s="0">
@@ -1839,6 +1968,9 @@
       <c r="B121" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C121" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s" s="0">
@@ -1847,6 +1979,9 @@
       <c r="B122" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C122" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s" s="0">
@@ -1885,6 +2020,9 @@
       <c r="B126" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C126" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s" s="0">
@@ -1904,6 +2042,9 @@
       <c r="B128" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C128" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s" s="0">
@@ -1912,6 +2053,9 @@
       <c r="B129" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C129" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s" s="0">
@@ -1931,6 +2075,9 @@
       <c r="B131" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C131" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s" s="0">
@@ -1939,6 +2086,9 @@
       <c r="B132" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C132" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s" s="0">
@@ -1977,6 +2127,9 @@
       <c r="B136" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C136" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s" s="0">
@@ -1996,6 +2149,9 @@
       <c r="B138" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C138" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s" s="0">
@@ -2004,6 +2160,9 @@
       <c r="B139" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C139" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s" s="0">
@@ -2023,6 +2182,9 @@
       <c r="B141" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C141" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s" s="0">
@@ -2031,6 +2193,9 @@
       <c r="B142" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C142" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s" s="0">
@@ -2069,6 +2234,9 @@
       <c r="B146" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C146" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s" s="0">
@@ -2088,6 +2256,9 @@
       <c r="B148" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C148" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s" s="0">
@@ -2096,6 +2267,9 @@
       <c r="B149" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C149" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s" s="0">
@@ -2115,6 +2289,9 @@
       <c r="B151" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C151" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s" s="0">
@@ -2123,6 +2300,9 @@
       <c r="B152" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C152" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s" s="0">
@@ -2161,6 +2341,9 @@
       <c r="B156" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C156" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s" s="0">
@@ -2180,6 +2363,9 @@
       <c r="B158" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C158" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s" s="0">
@@ -2188,6 +2374,9 @@
       <c r="B159" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C159" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s" s="0">
@@ -2207,6 +2396,9 @@
       <c r="B161" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C161" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s" s="0">
@@ -2215,6 +2407,9 @@
       <c r="B162" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C162" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s" s="0">
@@ -2253,6 +2448,9 @@
       <c r="B166" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C166" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s" s="0">
@@ -2272,6 +2470,9 @@
       <c r="B168" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C168" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s" s="0">
@@ -2280,6 +2481,9 @@
       <c r="B169" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C169" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s" s="0">
@@ -2299,6 +2503,9 @@
       <c r="B171" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C171" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s" s="0">
@@ -2307,6 +2514,9 @@
       <c r="B172" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C172" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s" s="0">
@@ -2345,6 +2555,9 @@
       <c r="B176" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C176" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s" s="0">
@@ -2364,6 +2577,9 @@
       <c r="B178" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C178" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s" s="0">
@@ -2372,6 +2588,9 @@
       <c r="B179" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C179" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s" s="0">
@@ -2391,6 +2610,9 @@
       <c r="B181" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C181" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s" s="0">
@@ -2399,6 +2621,9 @@
       <c r="B182" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C182" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s" s="0">
@@ -2437,6 +2662,9 @@
       <c r="B186" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C186" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s" s="0">
@@ -2456,6 +2684,9 @@
       <c r="B188" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C188" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s" s="0">
@@ -2464,6 +2695,9 @@
       <c r="B189" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C189" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s" s="0">
@@ -2483,6 +2717,9 @@
       <c r="B191" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C191" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s" s="0">
@@ -2491,6 +2728,9 @@
       <c r="B192" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C192" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s" s="0">
@@ -2529,6 +2769,9 @@
       <c r="B196" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C196" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s" s="0">
@@ -2548,6 +2791,9 @@
       <c r="B198" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C198" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s" s="0">
@@ -2556,6 +2802,9 @@
       <c r="B199" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C199" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s" s="0">
@@ -2575,6 +2824,9 @@
       <c r="B201" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C201" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s" s="0">
@@ -2583,6 +2835,9 @@
       <c r="B202" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C202" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s" s="0">
@@ -2621,6 +2876,9 @@
       <c r="B206" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C206" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s" s="0">
@@ -2640,6 +2898,9 @@
       <c r="B208" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C208" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s" s="0">
@@ -2648,6 +2909,9 @@
       <c r="B209" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C209" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s" s="0">
@@ -2667,6 +2931,9 @@
       <c r="B211" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C211" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s" s="0">
@@ -2675,6 +2942,9 @@
       <c r="B212" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C212" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s" s="0">
@@ -2713,6 +2983,9 @@
       <c r="B216" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C216" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s" s="0">
@@ -2732,6 +3005,9 @@
       <c r="B218" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C218" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s" s="0">
@@ -2740,6 +3016,9 @@
       <c r="B219" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C219" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s" s="0">
@@ -2759,6 +3038,9 @@
       <c r="B221" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C221" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s" s="0">
@@ -2767,6 +3049,9 @@
       <c r="B222" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C222" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s" s="0">
@@ -2805,6 +3090,9 @@
       <c r="B226" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C226" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s" s="0">
@@ -2824,6 +3112,9 @@
       <c r="B228" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C228" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s" s="0">
@@ -2832,6 +3123,9 @@
       <c r="B229" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C229" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s" s="0">
@@ -2851,6 +3145,9 @@
       <c r="B231" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C231" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s" s="0">
@@ -2859,6 +3156,9 @@
       <c r="B232" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C232" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s" s="0">
@@ -2897,6 +3197,9 @@
       <c r="B236" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C236" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s" s="0">
@@ -2916,6 +3219,9 @@
       <c r="B238" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C238" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s" s="0">
@@ -2924,6 +3230,9 @@
       <c r="B239" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C239" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s" s="0">
@@ -2943,6 +3252,9 @@
       <c r="B241" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C241" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s" s="0">
@@ -2951,6 +3263,9 @@
       <c r="B242" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C242" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s" s="0">
@@ -2989,6 +3304,9 @@
       <c r="B246" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C246" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s" s="0">
@@ -3008,6 +3326,9 @@
       <c r="B248" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C248" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s" s="0">
@@ -3016,6 +3337,9 @@
       <c r="B249" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C249" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s" s="0">
@@ -3035,6 +3359,9 @@
       <c r="B251" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C251" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s" s="0">
@@ -3043,6 +3370,9 @@
       <c r="B252" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C252" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s" s="0">
@@ -3081,6 +3411,9 @@
       <c r="B256" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C256" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s" s="0">
@@ -3100,6 +3433,9 @@
       <c r="B258" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C258" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s" s="0">
@@ -3108,6 +3444,9 @@
       <c r="B259" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C259" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s" s="0">
@@ -3127,6 +3466,9 @@
       <c r="B261" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C261" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s" s="0">
@@ -3135,6 +3477,9 @@
       <c r="B262" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C262" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s" s="0">
@@ -3173,6 +3518,9 @@
       <c r="B266" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C266" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s" s="0">
@@ -3192,6 +3540,9 @@
       <c r="B268" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C268" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s" s="0">
@@ -3200,6 +3551,9 @@
       <c r="B269" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C269" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s" s="0">
@@ -3219,6 +3573,9 @@
       <c r="B271" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C271" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s" s="0">
@@ -3227,6 +3584,9 @@
       <c r="B272" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C272" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s" s="0">
@@ -3265,6 +3625,9 @@
       <c r="B276" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C276" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s" s="0">
@@ -3284,6 +3647,9 @@
       <c r="B278" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C278" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s" s="0">
@@ -3292,6 +3658,9 @@
       <c r="B279" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C279" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s" s="0">
@@ -3311,6 +3680,9 @@
       <c r="B281" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C281" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s" s="0">
@@ -3319,6 +3691,9 @@
       <c r="B282" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C282" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s" s="0">
@@ -3357,6 +3732,9 @@
       <c r="B286" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C286" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s" s="0">
@@ -3376,6 +3754,9 @@
       <c r="B288" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C288" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s" s="0">
@@ -3384,6 +3765,9 @@
       <c r="B289" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C289" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s" s="0">
@@ -3403,6 +3787,9 @@
       <c r="B291" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C291" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s" s="0">
@@ -3411,6 +3798,9 @@
       <c r="B292" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C292" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s" s="0">
@@ -3449,6 +3839,9 @@
       <c r="B296" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C296" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s" s="0">
@@ -3468,6 +3861,9 @@
       <c r="B298" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C298" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s" s="0">
@@ -3476,6 +3872,9 @@
       <c r="B299" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C299" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s" s="0">
@@ -3495,6 +3894,9 @@
       <c r="B301" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C301" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s" s="0">
@@ -3503,6 +3905,9 @@
       <c r="B302" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C302" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s" s="0">
@@ -3541,6 +3946,9 @@
       <c r="B306" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C306" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s" s="0">
@@ -3560,6 +3968,9 @@
       <c r="B308" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C308" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s" s="0">
@@ -3568,6 +3979,9 @@
       <c r="B309" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C309" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s" s="0">
@@ -3587,6 +4001,9 @@
       <c r="B311" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C311" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s" s="0">
@@ -3595,6 +4012,9 @@
       <c r="B312" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C312" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s" s="0">
@@ -3633,6 +4053,9 @@
       <c r="B316" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C316" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s" s="0">
@@ -3652,6 +4075,9 @@
       <c r="B318" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C318" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s" s="0">
@@ -3660,6 +4086,9 @@
       <c r="B319" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C319" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s" s="0">
@@ -3679,6 +4108,9 @@
       <c r="B321" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C321" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s" s="0">
@@ -3687,6 +4119,9 @@
       <c r="B322" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C322" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s" s="0">
@@ -3725,6 +4160,9 @@
       <c r="B326" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C326" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s" s="0">
@@ -3744,6 +4182,9 @@
       <c r="B328" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C328" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s" s="0">
@@ -3752,6 +4193,9 @@
       <c r="B329" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C329" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s" s="0">
@@ -3771,6 +4215,9 @@
       <c r="B331" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C331" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s" s="0">
@@ -3779,6 +4226,9 @@
       <c r="B332" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C332" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s" s="0">
@@ -3817,6 +4267,9 @@
       <c r="B336" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C336" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s" s="0">
@@ -3836,6 +4289,9 @@
       <c r="B338" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C338" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s" s="0">
@@ -3844,6 +4300,9 @@
       <c r="B339" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C339" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s" s="0">
@@ -3863,6 +4322,9 @@
       <c r="B341" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C341" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s" s="0">
@@ -3871,6 +4333,9 @@
       <c r="B342" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C342" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s" s="0">
@@ -3909,6 +4374,9 @@
       <c r="B346" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C346" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s" s="0">
@@ -3928,6 +4396,9 @@
       <c r="B348" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C348" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s" s="0">
@@ -3936,6 +4407,9 @@
       <c r="B349" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C349" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s" s="0">
@@ -3955,6 +4429,9 @@
       <c r="B351" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C351" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s" s="0">
@@ -3963,6 +4440,9 @@
       <c r="B352" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C352" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s" s="0">
@@ -4001,6 +4481,9 @@
       <c r="B356" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C356" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s" s="0">
@@ -4020,6 +4503,9 @@
       <c r="B358" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C358" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s" s="0">
@@ -4028,6 +4514,9 @@
       <c r="B359" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C359" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s" s="0">
@@ -4047,6 +4536,9 @@
       <c r="B361" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C361" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s" s="0">
@@ -4055,6 +4547,9 @@
       <c r="B362" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C362" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s" s="0">
@@ -4093,6 +4588,9 @@
       <c r="B366" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C366" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s" s="0">
@@ -4112,6 +4610,9 @@
       <c r="B368" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C368" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s" s="0">
@@ -4120,6 +4621,9 @@
       <c r="B369" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C369" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s" s="0">
@@ -4139,6 +4643,9 @@
       <c r="B371" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C371" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s" s="0">
@@ -4147,6 +4654,9 @@
       <c r="B372" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C372" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s" s="0">
@@ -4185,6 +4695,9 @@
       <c r="B376" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C376" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s" s="0">
@@ -4204,6 +4717,9 @@
       <c r="B378" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C378" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s" s="0">
@@ -4212,6 +4728,9 @@
       <c r="B379" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C379" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s" s="0">
@@ -4231,6 +4750,9 @@
       <c r="B381" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C381" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s" s="0">
@@ -4239,6 +4761,9 @@
       <c r="B382" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C382" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s" s="0">
@@ -4277,6 +4802,9 @@
       <c r="B386" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C386" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s" s="0">
@@ -4296,6 +4824,9 @@
       <c r="B388" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C388" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s" s="0">
@@ -4304,6 +4835,9 @@
       <c r="B389" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C389" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s" s="0">
@@ -4323,6 +4857,9 @@
       <c r="B391" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C391" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s" s="0">
@@ -4331,6 +4868,9 @@
       <c r="B392" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C392" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s" s="0">
@@ -4369,6 +4909,9 @@
       <c r="B396" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C396" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s" s="0">
@@ -4388,6 +4931,9 @@
       <c r="B398" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C398" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s" s="0">
@@ -4396,6 +4942,9 @@
       <c r="B399" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C399" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s" s="0">
@@ -4415,6 +4964,9 @@
       <c r="B401" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C401" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s" s="0">
@@ -4423,6 +4975,9 @@
       <c r="B402" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C402" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s" s="0">
@@ -4461,6 +5016,9 @@
       <c r="B406" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C406" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s" s="0">
@@ -4480,6 +5038,9 @@
       <c r="B408" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C408" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s" s="0">
@@ -4488,6 +5049,9 @@
       <c r="B409" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C409" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s" s="0">
@@ -4507,6 +5071,9 @@
       <c r="B411" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C411" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s" s="0">
@@ -4515,6 +5082,9 @@
       <c r="B412" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C412" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s" s="0">
@@ -4553,6 +5123,9 @@
       <c r="B416" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C416" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s" s="0">
@@ -4572,6 +5145,9 @@
       <c r="B418" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C418" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s" s="0">
@@ -4580,6 +5156,9 @@
       <c r="B419" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C419" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s" s="0">
@@ -4599,6 +5178,9 @@
       <c r="B421" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C421" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s" s="0">
@@ -4607,6 +5189,9 @@
       <c r="B422" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C422" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s" s="0">
@@ -4645,6 +5230,9 @@
       <c r="B426" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C426" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s" s="0">
@@ -4664,6 +5252,9 @@
       <c r="B428" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C428" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s" s="0">
@@ -4672,6 +5263,9 @@
       <c r="B429" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C429" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s" s="0">
@@ -4691,6 +5285,9 @@
       <c r="B431" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C431" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s" s="0">
@@ -4699,6 +5296,9 @@
       <c r="B432" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C432" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s" s="0">
@@ -4737,6 +5337,9 @@
       <c r="B436" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C436" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s" s="0">
@@ -4756,6 +5359,9 @@
       <c r="B438" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C438" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s" s="0">
@@ -4764,6 +5370,9 @@
       <c r="B439" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C439" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s" s="0">
@@ -4783,6 +5392,9 @@
       <c r="B441" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C441" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s" s="0">
@@ -4791,6 +5403,9 @@
       <c r="B442" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C442" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s" s="0">
@@ -4829,6 +5444,9 @@
       <c r="B446" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C446" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s" s="0">
@@ -4848,6 +5466,9 @@
       <c r="B448" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C448" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s" s="0">
@@ -4856,6 +5477,9 @@
       <c r="B449" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C449" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s" s="0">
@@ -4875,6 +5499,9 @@
       <c r="B451" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C451" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s" s="0">
@@ -4883,6 +5510,9 @@
       <c r="B452" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C452" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s" s="0">
@@ -4921,6 +5551,9 @@
       <c r="B456" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C456" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s" s="0">
@@ -4940,6 +5573,9 @@
       <c r="B458" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C458" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s" s="0">
@@ -4948,6 +5584,9 @@
       <c r="B459" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C459" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s" s="0">
@@ -4967,6 +5606,9 @@
       <c r="B461" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C461" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s" s="0">
@@ -4975,6 +5617,9 @@
       <c r="B462" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C462" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s" s="0">
@@ -5013,6 +5658,9 @@
       <c r="B466" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C466" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s" s="0">
@@ -5032,6 +5680,9 @@
       <c r="B468" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C468" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s" s="0">
@@ -5040,6 +5691,9 @@
       <c r="B469" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C469" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s" s="0">
@@ -5059,6 +5713,9 @@
       <c r="B471" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C471" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s" s="0">
@@ -5067,6 +5724,9 @@
       <c r="B472" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C472" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s" s="0">
@@ -5105,6 +5765,9 @@
       <c r="B476" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C476" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s" s="0">
@@ -5124,6 +5787,9 @@
       <c r="B478" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C478" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s" s="0">
@@ -5132,6 +5798,9 @@
       <c r="B479" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C479" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s" s="0">
@@ -5151,6 +5820,9 @@
       <c r="B481" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C481" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s" s="0">
@@ -5159,6 +5831,9 @@
       <c r="B482" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C482" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s" s="0">
@@ -5197,6 +5872,9 @@
       <c r="B486" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C486" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s" s="0">
@@ -5216,6 +5894,9 @@
       <c r="B488" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C488" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s" s="0">
@@ -5224,6 +5905,9 @@
       <c r="B489" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C489" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s" s="0">
@@ -5243,6 +5927,9 @@
       <c r="B491" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C491" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s" s="0">
@@ -5251,6 +5938,9 @@
       <c r="B492" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C492" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s" s="0">
@@ -5289,6 +5979,9 @@
       <c r="B496" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C496" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s" s="0">
@@ -5308,6 +6001,9 @@
       <c r="B498" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C498" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s" s="0">
@@ -5316,6 +6012,9 @@
       <c r="B499" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C499" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s" s="0">
@@ -5335,6 +6034,9 @@
       <c r="B501" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C501" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s" s="0">
@@ -5343,6 +6045,9 @@
       <c r="B502" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C502" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s" s="0">
@@ -5381,6 +6086,9 @@
       <c r="B506" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C506" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s" s="0">
@@ -5400,6 +6108,9 @@
       <c r="B508" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C508" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s" s="0">
@@ -5408,6 +6119,9 @@
       <c r="B509" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C509" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" t="s" s="0">
@@ -5427,6 +6141,9 @@
       <c r="B511" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C511" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s" s="0">
@@ -5435,6 +6152,9 @@
       <c r="B512" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C512" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" t="s" s="0">
@@ -5473,6 +6193,9 @@
       <c r="B516" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C516" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" t="s" s="0">
@@ -5492,6 +6215,9 @@
       <c r="B518" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C518" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" t="s" s="0">
@@ -5500,6 +6226,9 @@
       <c r="B519" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C519" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" t="s" s="0">
@@ -5519,6 +6248,9 @@
       <c r="B521" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C521" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" t="s" s="0">
@@ -5527,6 +6259,9 @@
       <c r="B522" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C522" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" t="s" s="0">
@@ -5565,6 +6300,9 @@
       <c r="B526" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C526" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" t="s" s="0">
@@ -5584,6 +6322,9 @@
       <c r="B528" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C528" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" t="s" s="0">
@@ -5592,6 +6333,9 @@
       <c r="B529" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C529" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" t="s" s="0">
@@ -5611,6 +6355,9 @@
       <c r="B531" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C531" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" t="s" s="0">
@@ -5619,6 +6366,9 @@
       <c r="B532" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C532" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" t="s" s="0">
@@ -5657,6 +6407,9 @@
       <c r="B536" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C536" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" t="s" s="0">
@@ -5676,6 +6429,9 @@
       <c r="B538" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C538" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539" t="s" s="0">
@@ -5684,6 +6440,9 @@
       <c r="B539" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C539" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540" t="s" s="0">
@@ -5703,6 +6462,9 @@
       <c r="B541" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C541" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542" t="s" s="0">
@@ -5711,6 +6473,9 @@
       <c r="B542" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C542" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543" t="s" s="0">
@@ -5749,6 +6514,9 @@
       <c r="B546" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C546" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547" t="s" s="0">
@@ -5768,6 +6536,9 @@
       <c r="B548" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C548" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549" t="s" s="0">
@@ -5776,6 +6547,9 @@
       <c r="B549" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C549" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550" t="s" s="0">
@@ -5795,6 +6569,9 @@
       <c r="B551" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C551" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552" t="s" s="0">
@@ -5803,6 +6580,9 @@
       <c r="B552" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C552" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553" t="s" s="0">
@@ -5841,6 +6621,9 @@
       <c r="B556" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C556" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557" t="s" s="0">
@@ -5860,6 +6643,9 @@
       <c r="B558" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C558" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559" t="s" s="0">
@@ -5868,6 +6654,9 @@
       <c r="B559" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C559" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560" t="s" s="0">
@@ -5887,6 +6676,9 @@
       <c r="B561" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C561" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" t="s" s="0">
@@ -5895,6 +6687,9 @@
       <c r="B562" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C562" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" t="s" s="0">
@@ -5933,6 +6728,9 @@
       <c r="B566" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C566" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" t="s" s="0">
@@ -5952,6 +6750,9 @@
       <c r="B568" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C568" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" t="s" s="0">
@@ -5960,6 +6761,9 @@
       <c r="B569" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C569" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570" t="s" s="0">
@@ -5979,6 +6783,9 @@
       <c r="B571" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C571" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572" t="s" s="0">
@@ -5987,6 +6794,9 @@
       <c r="B572" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C572" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573" t="s" s="0">
@@ -6025,6 +6835,9 @@
       <c r="B576" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C576" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" t="s" s="0">
@@ -6044,6 +6857,9 @@
       <c r="B578" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C578" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" t="s" s="0">
@@ -6052,6 +6868,9 @@
       <c r="B579" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C579" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" t="s" s="0">
@@ -6071,6 +6890,9 @@
       <c r="B581" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C581" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" t="s" s="0">
@@ -6079,6 +6901,9 @@
       <c r="B582" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C582" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" t="s" s="0">
@@ -6117,6 +6942,9 @@
       <c r="B586" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C586" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" t="s" s="0">
@@ -6136,6 +6964,9 @@
       <c r="B588" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C588" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" t="s" s="0">
@@ -6144,6 +6975,9 @@
       <c r="B589" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C589" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" t="s" s="0">
@@ -6163,6 +6997,9 @@
       <c r="B591" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C591" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592" t="s" s="0">
@@ -6171,6 +7008,9 @@
       <c r="B592" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C592" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593" t="s" s="0">
@@ -6209,6 +7049,9 @@
       <c r="B596" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C596" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" t="s" s="0">
@@ -6228,6 +7071,9 @@
       <c r="B598" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C598" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599" t="s" s="0">
@@ -6236,6 +7082,9 @@
       <c r="B599" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C599" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600" t="s" s="0">
@@ -6255,6 +7104,9 @@
       <c r="B601" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C601" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602" t="s" s="0">
@@ -6263,6 +7115,9 @@
       <c r="B602" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C602" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603" t="s" s="0">
@@ -6301,6 +7156,9 @@
       <c r="B606" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C606" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A607" t="s" s="0">
@@ -6320,6 +7178,9 @@
       <c r="B608" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C608" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A609" t="s" s="0">
@@ -6328,6 +7189,9 @@
       <c r="B609" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C609" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A610" t="s" s="0">
@@ -6347,6 +7211,9 @@
       <c r="B611" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C611" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612" t="s" s="0">
@@ -6355,6 +7222,9 @@
       <c r="B612" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C612" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613" t="s" s="0">
@@ -6393,6 +7263,9 @@
       <c r="B616" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C616" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617" t="s" s="0">
@@ -6412,6 +7285,9 @@
       <c r="B618" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C618" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619" t="s" s="0">
@@ -6420,6 +7296,9 @@
       <c r="B619" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C619" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620" t="s" s="0">
@@ -6439,6 +7318,9 @@
       <c r="B621" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C621" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622" t="s" s="0">
@@ -6447,6 +7329,9 @@
       <c r="B622" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C622" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623" t="s" s="0">
@@ -6485,6 +7370,9 @@
       <c r="B626" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C626" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A627" t="s" s="0">
@@ -6504,6 +7392,9 @@
       <c r="B628" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C628" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A629" t="s" s="0">
@@ -6512,6 +7403,9 @@
       <c r="B629" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C629" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A630" t="s" s="0">
@@ -6531,6 +7425,9 @@
       <c r="B631" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C631" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A632" t="s" s="0">
@@ -6539,6 +7436,9 @@
       <c r="B632" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C632" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A633" t="s" s="0">
@@ -6577,6 +7477,9 @@
       <c r="B636" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C636" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A637" t="s" s="0">
@@ -6596,6 +7499,9 @@
       <c r="B638" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C638" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A639" t="s" s="0">
@@ -6604,6 +7510,9 @@
       <c r="B639" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C639" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A640" t="s" s="0">
@@ -6623,6 +7532,9 @@
       <c r="B641" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C641" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A642" t="s" s="0">
@@ -6631,6 +7543,9 @@
       <c r="B642" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C642" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A643" t="s" s="0">
@@ -6669,6 +7584,9 @@
       <c r="B646" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C646" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A647" t="s" s="0">
@@ -6688,6 +7606,9 @@
       <c r="B648" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C648" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A649" t="s" s="0">
@@ -6696,6 +7617,9 @@
       <c r="B649" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C649" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A650" t="s" s="0">
@@ -6715,6 +7639,9 @@
       <c r="B651" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C651" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A652" t="s" s="0">
@@ -6723,6 +7650,9 @@
       <c r="B652" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C652" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A653" t="s" s="0">
@@ -6761,6 +7691,9 @@
       <c r="B656" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C656" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A657" t="s" s="0">
@@ -6780,6 +7713,9 @@
       <c r="B658" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C658" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A659" t="s" s="0">
@@ -6788,6 +7724,9 @@
       <c r="B659" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C659" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A660" t="s" s="0">
@@ -6807,6 +7746,9 @@
       <c r="B661" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C661" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A662" t="s" s="0">
@@ -6815,6 +7757,9 @@
       <c r="B662" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C662" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A663" t="s" s="0">
@@ -6853,6 +7798,9 @@
       <c r="B666" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C666" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A667" t="s" s="0">
@@ -6872,6 +7820,9 @@
       <c r="B668" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C668" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A669" t="s" s="0">
@@ -6880,6 +7831,9 @@
       <c r="B669" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C669" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A670" t="s" s="0">
@@ -6899,6 +7853,9 @@
       <c r="B671" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C671" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A672" t="s" s="0">
@@ -6907,6 +7864,9 @@
       <c r="B672" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C672" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A673" t="s" s="0">
@@ -6945,6 +7905,9 @@
       <c r="B676" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C676" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A677" t="s" s="0">
@@ -6964,6 +7927,9 @@
       <c r="B678" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C678" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A679" t="s" s="0">
@@ -6972,6 +7938,9 @@
       <c r="B679" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C679" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A680" t="s" s="0">
@@ -6991,6 +7960,9 @@
       <c r="B681" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C681" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A682" t="s" s="0">
@@ -6999,6 +7971,9 @@
       <c r="B682" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C682" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A683" t="s" s="0">
@@ -7037,6 +8012,9 @@
       <c r="B686" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C686" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A687" t="s" s="0">
@@ -7056,6 +8034,9 @@
       <c r="B688" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C688" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A689" t="s" s="0">
@@ -7064,6 +8045,9 @@
       <c r="B689" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C689" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A690" t="s" s="0">
@@ -7083,6 +8067,9 @@
       <c r="B691" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C691" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A692" t="s" s="0">
@@ -7091,6 +8078,9 @@
       <c r="B692" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C692" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A693" t="s" s="0">
@@ -7129,6 +8119,9 @@
       <c r="B696" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C696" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A697" t="s" s="0">
@@ -7148,6 +8141,9 @@
       <c r="B698" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C698" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A699" t="s" s="0">
@@ -7156,6 +8152,9 @@
       <c r="B699" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C699" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A700" t="s" s="0">
@@ -7175,6 +8174,9 @@
       <c r="B701" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C701" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A702" t="s" s="0">
@@ -7183,6 +8185,9 @@
       <c r="B702" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C702" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A703" t="s" s="0">
@@ -7221,6 +8226,9 @@
       <c r="B706" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C706" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A707" t="s" s="0">
@@ -7240,6 +8248,9 @@
       <c r="B708" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C708" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A709" t="s" s="0">
@@ -7248,6 +8259,9 @@
       <c r="B709" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C709" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A710" t="s" s="0">
@@ -7267,6 +8281,9 @@
       <c r="B711" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C711" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A712" t="s" s="0">
@@ -7275,6 +8292,9 @@
       <c r="B712" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C712" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A713" t="s" s="0">
@@ -7313,6 +8333,9 @@
       <c r="B716" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C716" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A717" t="s" s="0">
@@ -7332,6 +8355,9 @@
       <c r="B718" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C718" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A719" t="s" s="0">
@@ -7340,6 +8366,9 @@
       <c r="B719" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C719" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A720" t="s" s="0">
@@ -7359,6 +8388,9 @@
       <c r="B721" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C721" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A722" t="s" s="0">
@@ -7367,6 +8399,9 @@
       <c r="B722" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C722" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A723" t="s" s="0">
@@ -7405,6 +8440,9 @@
       <c r="B726" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C726" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A727" t="s" s="0">
@@ -7424,6 +8462,9 @@
       <c r="B728" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C728" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A729" t="s" s="0">
@@ -7432,6 +8473,9 @@
       <c r="B729" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C729" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A730" t="s" s="0">
@@ -7451,6 +8495,9 @@
       <c r="B731" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C731" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A732" t="s" s="0">
@@ -7459,6 +8506,9 @@
       <c r="B732" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C732" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A733" t="s" s="0">
@@ -7497,6 +8547,9 @@
       <c r="B736" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C736" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A737" t="s" s="0">
@@ -7516,6 +8569,9 @@
       <c r="B738" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C738" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A739" t="s" s="0">
@@ -7524,6 +8580,9 @@
       <c r="B739" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C739" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A740" t="s" s="0">
@@ -7543,6 +8602,9 @@
       <c r="B741" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C741" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A742" t="s" s="0">
@@ -7551,6 +8613,9 @@
       <c r="B742" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C742" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A743" t="s" s="0">
@@ -7589,6 +8654,9 @@
       <c r="B746" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C746" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A747" t="s" s="0">
@@ -7608,6 +8676,9 @@
       <c r="B748" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C748" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A749" t="s" s="0">
@@ -7616,6 +8687,9 @@
       <c r="B749" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C749" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A750" t="s" s="0">
@@ -7635,6 +8709,9 @@
       <c r="B751" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C751" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A752" t="s" s="0">
@@ -7643,6 +8720,9 @@
       <c r="B752" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C752" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A753" t="s" s="0">
@@ -7681,6 +8761,9 @@
       <c r="B756" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C756" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A757" t="s" s="0">
@@ -7700,6 +8783,9 @@
       <c r="B758" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C758" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A759" t="s" s="0">
@@ -7708,6 +8794,9 @@
       <c r="B759" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C759" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A760" t="s" s="0">
@@ -7727,6 +8816,9 @@
       <c r="B761" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C761" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A762" t="s" s="0">
@@ -7735,6 +8827,9 @@
       <c r="B762" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C762" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A763" t="s" s="0">
@@ -7773,6 +8868,9 @@
       <c r="B766" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C766" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A767" t="s" s="0">
@@ -7792,6 +8890,9 @@
       <c r="B768" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C768" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A769" t="s" s="0">
@@ -7800,6 +8901,9 @@
       <c r="B769" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C769" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A770" t="s" s="0">
@@ -7819,6 +8923,9 @@
       <c r="B771" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C771" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A772" t="s" s="0">
@@ -7827,6 +8934,9 @@
       <c r="B772" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C772" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A773" t="s" s="0">
@@ -7865,6 +8975,9 @@
       <c r="B776" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C776" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A777" t="s" s="0">
@@ -7884,6 +8997,9 @@
       <c r="B778" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C778" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A779" t="s" s="0">
@@ -7892,6 +9008,9 @@
       <c r="B779" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C779" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A780" t="s" s="0">
@@ -7911,6 +9030,9 @@
       <c r="B781" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C781" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A782" t="s" s="0">
@@ -7919,6 +9041,9 @@
       <c r="B782" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C782" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A783" t="s" s="0">
@@ -7957,6 +9082,9 @@
       <c r="B786" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C786" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A787" t="s" s="0">
@@ -7976,6 +9104,9 @@
       <c r="B788" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C788" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A789" t="s" s="0">
@@ -7984,6 +9115,9 @@
       <c r="B789" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C789" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A790" t="s" s="0">
@@ -8003,6 +9137,9 @@
       <c r="B791" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C791" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A792" t="s" s="0">
@@ -8011,6 +9148,9 @@
       <c r="B792" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C792" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A793" t="s" s="0">
@@ -8049,6 +9189,9 @@
       <c r="B796" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C796" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A797" t="s" s="0">
@@ -8068,6 +9211,9 @@
       <c r="B798" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C798" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A799" t="s" s="0">
@@ -8076,6 +9222,9 @@
       <c r="B799" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C799" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A800" t="s" s="0">
@@ -8095,6 +9244,9 @@
       <c r="B801" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C801" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A802" t="s" s="0">
@@ -8103,6 +9255,9 @@
       <c r="B802" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C802" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A803" t="s" s="0">
@@ -8141,6 +9296,9 @@
       <c r="B806" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C806" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A807" t="s" s="0">
@@ -8160,6 +9318,9 @@
       <c r="B808" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C808" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A809" t="s" s="0">
@@ -8168,6 +9329,9 @@
       <c r="B809" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C809" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A810" t="s" s="0">
@@ -8187,6 +9351,9 @@
       <c r="B811" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C811" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A812" t="s" s="0">
@@ -8195,6 +9362,9 @@
       <c r="B812" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C812" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A813" t="s" s="0">
@@ -8233,6 +9403,9 @@
       <c r="B816" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C816" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A817" t="s" s="0">
@@ -8252,6 +9425,9 @@
       <c r="B818" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C818" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A819" t="s" s="0">
@@ -8260,6 +9436,9 @@
       <c r="B819" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C819" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A820" t="s" s="0">
@@ -8279,6 +9458,9 @@
       <c r="B821" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C821" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A822" t="s" s="0">
@@ -8287,6 +9469,9 @@
       <c r="B822" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C822" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A823" t="s" s="0">
@@ -8325,6 +9510,9 @@
       <c r="B826" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C826" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A827" t="s" s="0">
@@ -8344,6 +9532,9 @@
       <c r="B828" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C828" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A829" t="s" s="0">
@@ -8352,6 +9543,9 @@
       <c r="B829" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C829" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A830" t="s" s="0">
@@ -8371,6 +9565,9 @@
       <c r="B831" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C831" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A832" t="s" s="0">
@@ -8379,6 +9576,9 @@
       <c r="B832" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C832" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A833" t="s" s="0">
@@ -8417,6 +9617,9 @@
       <c r="B836" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C836" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A837" t="s" s="0">
@@ -8436,6 +9639,9 @@
       <c r="B838" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C838" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A839" t="s" s="0">
@@ -8444,6 +9650,9 @@
       <c r="B839" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C839" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A840" t="s" s="0">
@@ -8463,6 +9672,9 @@
       <c r="B841" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C841" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A842" t="s" s="0">
@@ -8471,6 +9683,9 @@
       <c r="B842" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C842" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A843" t="s" s="0">
@@ -8509,6 +9724,9 @@
       <c r="B846" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C846" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A847" t="s" s="0">
@@ -8528,6 +9746,9 @@
       <c r="B848" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C848" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A849" t="s" s="0">
@@ -8536,6 +9757,9 @@
       <c r="B849" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C849" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A850" t="s" s="0">
@@ -8555,6 +9779,9 @@
       <c r="B851" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C851" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A852" t="s" s="0">
@@ -8563,6 +9790,9 @@
       <c r="B852" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C852" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A853" t="s" s="0">
@@ -8601,6 +9831,9 @@
       <c r="B856" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C856" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A857" t="s" s="0">
@@ -8620,6 +9853,9 @@
       <c r="B858" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C858" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A859" t="s" s="0">
@@ -8628,6 +9864,9 @@
       <c r="B859" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C859" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A860" t="s" s="0">
@@ -8647,6 +9886,9 @@
       <c r="B861" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C861" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A862" t="s" s="0">
@@ -8655,6 +9897,9 @@
       <c r="B862" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C862" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A863" t="s" s="0">
@@ -8693,6 +9938,9 @@
       <c r="B866" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C866" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A867" t="s" s="0">
@@ -8712,6 +9960,9 @@
       <c r="B868" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C868" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A869" t="s" s="0">
@@ -8720,6 +9971,9 @@
       <c r="B869" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C869" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A870" t="s" s="0">
@@ -8739,6 +9993,9 @@
       <c r="B871" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C871" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A872" t="s" s="0">
@@ -8747,6 +10004,9 @@
       <c r="B872" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C872" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A873" t="s" s="0">
@@ -8785,6 +10045,9 @@
       <c r="B876" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C876" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A877" t="s" s="0">
@@ -8804,6 +10067,9 @@
       <c r="B878" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C878" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A879" t="s" s="0">
@@ -8812,6 +10078,9 @@
       <c r="B879" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C879" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A880" t="s" s="0">
@@ -8831,6 +10100,9 @@
       <c r="B881" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C881" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A882" t="s" s="0">
@@ -8839,6 +10111,9 @@
       <c r="B882" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C882" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A883" t="s" s="0">
@@ -8877,6 +10152,9 @@
       <c r="B886" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C886" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A887" t="s" s="0">
@@ -8896,6 +10174,9 @@
       <c r="B888" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C888" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A889" t="s" s="0">
@@ -8904,6 +10185,9 @@
       <c r="B889" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C889" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A890" t="s" s="0">
@@ -8923,6 +10207,9 @@
       <c r="B891" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C891" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A892" t="s" s="0">
@@ -8931,6 +10218,9 @@
       <c r="B892" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C892" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A893" t="s" s="0">
@@ -8969,6 +10259,9 @@
       <c r="B896" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C896" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A897" t="s" s="0">
@@ -8988,6 +10281,9 @@
       <c r="B898" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C898" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A899" t="s" s="0">
@@ -8996,6 +10292,9 @@
       <c r="B899" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C899" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A900" t="s" s="0">
@@ -9015,6 +10314,9 @@
       <c r="B901" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C901" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A902" t="s" s="0">
@@ -9023,6 +10325,9 @@
       <c r="B902" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C902" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A903" t="s" s="0">
@@ -9061,6 +10366,9 @@
       <c r="B906" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C906" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A907" t="s" s="0">
@@ -9080,6 +10388,9 @@
       <c r="B908" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C908" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A909" t="s" s="0">
@@ -9088,6 +10399,9 @@
       <c r="B909" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C909" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A910" t="s" s="0">
@@ -9107,6 +10421,9 @@
       <c r="B911" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C911" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A912" t="s" s="0">
@@ -9115,6 +10432,9 @@
       <c r="B912" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C912" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A913" t="s" s="0">
@@ -9153,6 +10473,9 @@
       <c r="B916" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C916" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A917" t="s" s="0">
@@ -9172,6 +10495,9 @@
       <c r="B918" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C918" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A919" t="s" s="0">
@@ -9180,6 +10506,9 @@
       <c r="B919" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C919" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A920" t="s" s="0">
@@ -9199,6 +10528,9 @@
       <c r="B921" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C921" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A922" t="s" s="0">
@@ -9207,6 +10539,9 @@
       <c r="B922" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C922" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A923" t="s" s="0">
@@ -9245,6 +10580,9 @@
       <c r="B926" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C926" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A927" t="s" s="0">
@@ -9264,6 +10602,9 @@
       <c r="B928" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C928" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A929" t="s" s="0">
@@ -9272,6 +10613,9 @@
       <c r="B929" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C929" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A930" t="s" s="0">
@@ -9291,6 +10635,9 @@
       <c r="B931" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C931" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A932" t="s" s="0">
@@ -9299,6 +10646,9 @@
       <c r="B932" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C932" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A933" t="s" s="0">
@@ -9337,6 +10687,9 @@
       <c r="B936" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C936" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A937" t="s" s="0">
@@ -9356,6 +10709,9 @@
       <c r="B938" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C938" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A939" t="s" s="0">
@@ -9364,6 +10720,9 @@
       <c r="B939" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C939" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A940" t="s" s="0">
@@ -9383,6 +10742,9 @@
       <c r="B941" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C941" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A942" t="s" s="0">
@@ -9391,6 +10753,9 @@
       <c r="B942" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C942" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A943" t="s" s="0">
@@ -9429,6 +10794,9 @@
       <c r="B946" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C946" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A947" t="s" s="0">
@@ -9448,6 +10816,9 @@
       <c r="B948" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C948" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A949" t="s" s="0">
@@ -9456,6 +10827,9 @@
       <c r="B949" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C949" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A950" t="s" s="0">
@@ -9475,6 +10849,9 @@
       <c r="B951" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C951" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A952" t="s" s="0">
@@ -9483,6 +10860,9 @@
       <c r="B952" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C952" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A953" t="s" s="0">
@@ -9521,6 +10901,9 @@
       <c r="B956" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C956" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A957" t="s" s="0">
@@ -9540,6 +10923,9 @@
       <c r="B958" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C958" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A959" t="s" s="0">
@@ -9548,6 +10934,9 @@
       <c r="B959" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C959" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A960" t="s" s="0">
@@ -9567,6 +10956,9 @@
       <c r="B961" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C961" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A962" t="s" s="0">
@@ -9575,6 +10967,9 @@
       <c r="B962" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C962" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A963" t="s" s="0">
@@ -9613,6 +11008,9 @@
       <c r="B966" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C966" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A967" t="s" s="0">
@@ -9632,6 +11030,9 @@
       <c r="B968" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C968" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A969" t="s" s="0">
@@ -9640,6 +11041,9 @@
       <c r="B969" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C969" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A970" t="s" s="0">
@@ -9659,6 +11063,9 @@
       <c r="B971" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C971" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A972" t="s" s="0">
@@ -9667,6 +11074,9 @@
       <c r="B972" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C972" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A973" t="s" s="0">
@@ -9705,6 +11115,9 @@
       <c r="B976" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C976" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A977" t="s" s="0">
@@ -9724,6 +11137,9 @@
       <c r="B978" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C978" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A979" t="s" s="0">
@@ -9732,6 +11148,9 @@
       <c r="B979" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C979" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A980" t="s" s="0">
@@ -9751,6 +11170,9 @@
       <c r="B981" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C981" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A982" t="s" s="0">
@@ -9759,6 +11181,9 @@
       <c r="B982" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C982" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A983" t="s" s="0">
@@ -9797,6 +11222,9 @@
       <c r="B986" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C986" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A987" t="s" s="0">
@@ -9816,6 +11244,9 @@
       <c r="B988" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C988" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A989" t="s" s="0">
@@ -9824,6 +11255,9 @@
       <c r="B989" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C989" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A990" t="s" s="0">
@@ -9843,6 +11277,9 @@
       <c r="B991" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C991" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A992" t="s" s="0">
@@ -9851,6 +11288,9 @@
       <c r="B992" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C992" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A993" t="s" s="0">
@@ -9889,6 +11329,9 @@
       <c r="B996" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C996" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A997" t="s" s="0">
@@ -9908,6 +11351,9 @@
       <c r="B998" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C998" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A999" t="s" s="0">
@@ -9916,6 +11362,9 @@
       <c r="B999" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C999" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1000" t="s" s="0">
@@ -9935,6 +11384,9 @@
       <c r="B1001" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C1001" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1002" t="s" s="0">
@@ -9943,6 +11395,9 @@
       <c r="B1002" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C1002" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1003" t="s" s="0">
@@ -9981,6 +11436,9 @@
       <c r="B1006" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C1006" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1007" t="s" s="0">
@@ -10000,6 +11458,9 @@
       <c r="B1008" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C1008" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1009" t="s" s="0">
@@ -10008,6 +11469,9 @@
       <c r="B1009" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C1009" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1010" t="s" s="0">
@@ -10027,6 +11491,9 @@
       <c r="B1011" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C1011" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1012" t="s" s="0">
@@ -10035,6 +11502,9 @@
       <c r="B1012" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C1012" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1013" t="s" s="0">
@@ -10073,6 +11543,9 @@
       <c r="B1016" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C1016" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1017" t="s" s="0">
@@ -10092,6 +11565,9 @@
       <c r="B1018" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C1018" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1019" t="s" s="0">
@@ -10100,6 +11576,9 @@
       <c r="B1019" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C1019" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1020" t="s" s="0">
@@ -10119,6 +11598,9 @@
       <c r="B1021" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C1021" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1022" t="s" s="0">
@@ -10127,6 +11609,9 @@
       <c r="B1022" t="s" s="0">
         <v>81</v>
       </c>
+      <c r="C1022" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1023" t="s" s="0">
@@ -10165,6 +11650,9 @@
       <c r="B1026" t="s" s="0">
         <v>71</v>
       </c>
+      <c r="C1026" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1027" t="s" s="0">
@@ -10184,6 +11672,9 @@
       <c r="B1028" t="s" s="0">
         <v>74</v>
       </c>
+      <c r="C1028" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1029" t="s" s="0">
@@ -10192,6 +11683,9 @@
       <c r="B1029" t="s" s="0">
         <v>76</v>
       </c>
+      <c r="C1029" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1030" t="s" s="0">
@@ -10211,6 +11705,9 @@
       <c r="B1031" t="s" s="0">
         <v>79</v>
       </c>
+      <c r="C1031" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1032" t="s" s="0">
@@ -10218,6 +11715,9 @@
       </c>
       <c r="B1032" t="s" s="0">
         <v>81</v>
+      </c>
+      <c r="C1032" t="s" s="0">
+        <v>87</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.3">

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3940" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4540" uniqueCount="88">
   <si>
     <t>word</t>
   </si>
@@ -1134,6 +1134,9 @@
       <c r="B43" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C43" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s" s="0">
@@ -1241,6 +1244,9 @@
       <c r="B53" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C53" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s" s="0">
@@ -1348,6 +1354,9 @@
       <c r="B63" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C63" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s" s="0">
@@ -1455,6 +1464,9 @@
       <c r="B73" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C73" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s" s="0">
@@ -1562,6 +1574,9 @@
       <c r="B83" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C83" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s" s="0">
@@ -1669,6 +1684,9 @@
       <c r="B93" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C93" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s" s="0">
@@ -1776,6 +1794,9 @@
       <c r="B103" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C103" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s" s="0">
@@ -1883,6 +1904,9 @@
       <c r="B113" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C113" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s" s="0">
@@ -1990,6 +2014,9 @@
       <c r="B123" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C123" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s" s="0">
@@ -2097,6 +2124,9 @@
       <c r="B133" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C133" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s" s="0">
@@ -2204,6 +2234,9 @@
       <c r="B143" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C143" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s" s="0">
@@ -2311,6 +2344,9 @@
       <c r="B153" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C153" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s" s="0">
@@ -2418,6 +2454,9 @@
       <c r="B163" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C163" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s" s="0">
@@ -2525,6 +2564,9 @@
       <c r="B173" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C173" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s" s="0">
@@ -2632,6 +2674,9 @@
       <c r="B183" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C183" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s" s="0">
@@ -2739,6 +2784,9 @@
       <c r="B193" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C193" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s" s="0">
@@ -2846,6 +2894,9 @@
       <c r="B203" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C203" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s" s="0">
@@ -2953,6 +3004,9 @@
       <c r="B213" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C213" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s" s="0">
@@ -3060,6 +3114,9 @@
       <c r="B223" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C223" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s" s="0">
@@ -3167,6 +3224,9 @@
       <c r="B233" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C233" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s" s="0">
@@ -3274,6 +3334,9 @@
       <c r="B243" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C243" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s" s="0">
@@ -3381,6 +3444,9 @@
       <c r="B253" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C253" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s" s="0">
@@ -3488,6 +3554,9 @@
       <c r="B263" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C263" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s" s="0">
@@ -3595,6 +3664,9 @@
       <c r="B273" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C273" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s" s="0">
@@ -3702,6 +3774,9 @@
       <c r="B283" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C283" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s" s="0">
@@ -3809,6 +3884,9 @@
       <c r="B293" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C293" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s" s="0">
@@ -3916,6 +3994,9 @@
       <c r="B303" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C303" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s" s="0">
@@ -4023,6 +4104,9 @@
       <c r="B313" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C313" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s" s="0">
@@ -4130,6 +4214,9 @@
       <c r="B323" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C323" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s" s="0">
@@ -4237,6 +4324,9 @@
       <c r="B333" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C333" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s" s="0">
@@ -4344,6 +4434,9 @@
       <c r="B343" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C343" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s" s="0">
@@ -4451,6 +4544,9 @@
       <c r="B353" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C353" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s" s="0">
@@ -4558,6 +4654,9 @@
       <c r="B363" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C363" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s" s="0">
@@ -4665,6 +4764,9 @@
       <c r="B373" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C373" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s" s="0">
@@ -4772,6 +4874,9 @@
       <c r="B383" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C383" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s" s="0">
@@ -4879,6 +4984,9 @@
       <c r="B393" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C393" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s" s="0">
@@ -4986,6 +5094,9 @@
       <c r="B403" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C403" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s" s="0">
@@ -5093,6 +5204,9 @@
       <c r="B413" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C413" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s" s="0">
@@ -5200,6 +5314,9 @@
       <c r="B423" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C423" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s" s="0">
@@ -5307,6 +5424,9 @@
       <c r="B433" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C433" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s" s="0">
@@ -5414,6 +5534,9 @@
       <c r="B443" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C443" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s" s="0">
@@ -5521,6 +5644,9 @@
       <c r="B453" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C453" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s" s="0">
@@ -5628,6 +5754,9 @@
       <c r="B463" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C463" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s" s="0">
@@ -5735,6 +5864,9 @@
       <c r="B473" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C473" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s" s="0">
@@ -5842,6 +5974,9 @@
       <c r="B483" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C483" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s" s="0">
@@ -5949,6 +6084,9 @@
       <c r="B493" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C493" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s" s="0">
@@ -6056,6 +6194,9 @@
       <c r="B503" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C503" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s" s="0">
@@ -6163,6 +6304,9 @@
       <c r="B513" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C513" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" t="s" s="0">
@@ -6270,6 +6414,9 @@
       <c r="B523" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C523" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" t="s" s="0">
@@ -6377,6 +6524,9 @@
       <c r="B533" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C533" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" t="s" s="0">
@@ -6484,6 +6634,9 @@
       <c r="B543" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C543" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544" t="s" s="0">
@@ -6591,6 +6744,9 @@
       <c r="B553" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C553" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554" t="s" s="0">
@@ -6698,6 +6854,9 @@
       <c r="B563" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C563" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" t="s" s="0">
@@ -6805,6 +6964,9 @@
       <c r="B573" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C573" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574" t="s" s="0">
@@ -6912,6 +7074,9 @@
       <c r="B583" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C583" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" t="s" s="0">
@@ -7019,6 +7184,9 @@
       <c r="B593" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C593" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594" t="s" s="0">
@@ -7126,6 +7294,9 @@
       <c r="B603" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C603" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604" t="s" s="0">
@@ -7233,6 +7404,9 @@
       <c r="B613" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C613" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614" t="s" s="0">
@@ -7340,6 +7514,9 @@
       <c r="B623" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C623" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A624" t="s" s="0">
@@ -7447,6 +7624,9 @@
       <c r="B633" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C633" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A634" t="s" s="0">
@@ -7554,6 +7734,9 @@
       <c r="B643" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C643" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A644" t="s" s="0">
@@ -7661,6 +7844,9 @@
       <c r="B653" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C653" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A654" t="s" s="0">
@@ -7768,6 +7954,9 @@
       <c r="B663" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C663" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A664" t="s" s="0">
@@ -7875,6 +8064,9 @@
       <c r="B673" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C673" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A674" t="s" s="0">
@@ -7982,6 +8174,9 @@
       <c r="B683" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C683" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A684" t="s" s="0">
@@ -8089,6 +8284,9 @@
       <c r="B693" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C693" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A694" t="s" s="0">
@@ -8196,6 +8394,9 @@
       <c r="B703" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C703" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A704" t="s" s="0">
@@ -8303,6 +8504,9 @@
       <c r="B713" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C713" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A714" t="s" s="0">
@@ -8410,6 +8614,9 @@
       <c r="B723" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C723" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A724" t="s" s="0">
@@ -8517,6 +8724,9 @@
       <c r="B733" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C733" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A734" t="s" s="0">
@@ -8624,6 +8834,9 @@
       <c r="B743" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C743" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A744" t="s" s="0">
@@ -8731,6 +8944,9 @@
       <c r="B753" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C753" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A754" t="s" s="0">
@@ -8838,6 +9054,9 @@
       <c r="B763" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C763" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A764" t="s" s="0">
@@ -8945,6 +9164,9 @@
       <c r="B773" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C773" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A774" t="s" s="0">
@@ -9052,6 +9274,9 @@
       <c r="B783" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C783" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A784" t="s" s="0">
@@ -9159,6 +9384,9 @@
       <c r="B793" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C793" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A794" t="s" s="0">
@@ -9266,6 +9494,9 @@
       <c r="B803" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C803" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A804" t="s" s="0">
@@ -9373,6 +9604,9 @@
       <c r="B813" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C813" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A814" t="s" s="0">
@@ -9480,6 +9714,9 @@
       <c r="B823" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C823" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A824" t="s" s="0">
@@ -9587,6 +9824,9 @@
       <c r="B833" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C833" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A834" t="s" s="0">
@@ -9694,6 +9934,9 @@
       <c r="B843" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C843" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A844" t="s" s="0">
@@ -9801,6 +10044,9 @@
       <c r="B853" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C853" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A854" t="s" s="0">
@@ -9908,6 +10154,9 @@
       <c r="B863" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C863" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A864" t="s" s="0">
@@ -10015,6 +10264,9 @@
       <c r="B873" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C873" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A874" t="s" s="0">
@@ -10122,6 +10374,9 @@
       <c r="B883" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C883" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A884" t="s" s="0">
@@ -10229,6 +10484,9 @@
       <c r="B893" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C893" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A894" t="s" s="0">
@@ -10336,6 +10594,9 @@
       <c r="B903" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C903" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A904" t="s" s="0">
@@ -10443,6 +10704,9 @@
       <c r="B913" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C913" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A914" t="s" s="0">
@@ -10550,6 +10814,9 @@
       <c r="B923" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C923" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A924" t="s" s="0">
@@ -10657,6 +10924,9 @@
       <c r="B933" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C933" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A934" t="s" s="0">
@@ -10764,6 +11034,9 @@
       <c r="B943" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C943" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A944" t="s" s="0">
@@ -10871,6 +11144,9 @@
       <c r="B953" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C953" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A954" t="s" s="0">
@@ -10978,6 +11254,9 @@
       <c r="B963" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C963" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A964" t="s" s="0">
@@ -11085,6 +11364,9 @@
       <c r="B973" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C973" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A974" t="s" s="0">
@@ -11192,6 +11474,9 @@
       <c r="B983" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C983" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A984" t="s" s="0">
@@ -11299,6 +11584,9 @@
       <c r="B993" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C993" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A994" t="s" s="0">
@@ -11406,6 +11694,9 @@
       <c r="B1003" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C1003" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1004" t="s" s="0">
@@ -11513,6 +11804,9 @@
       <c r="B1013" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C1013" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1014" t="s" s="0">
@@ -11620,6 +11914,9 @@
       <c r="B1023" t="s" s="0">
         <v>83</v>
       </c>
+      <c r="C1023" t="s" s="0">
+        <v>87</v>
+      </c>
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1024" t="s" s="0">
@@ -11726,6 +12023,9 @@
       </c>
       <c r="B1033" t="s" s="0">
         <v>83</v>
+      </c>
+      <c r="C1033" t="s" s="0">
+        <v>87</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.3">
